--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="56">
   <si>
     <t xml:space="preserve">颇尔奥星包装科技（北京）有限责任公司                                                                                            </t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1025,66 +1025,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>x1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>x3</t>
-  </si>
-  <si>
-    <t>x4</t>
-  </si>
-  <si>
-    <t>y1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>y2</t>
-  </si>
-  <si>
-    <t>y3</t>
-  </si>
-  <si>
-    <t>y4</t>
-  </si>
-  <si>
     <t>SPM-PE-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>z1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>z2</t>
-  </si>
-  <si>
-    <t>z3</t>
-  </si>
-  <si>
-    <t>z4</t>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>a+b</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>a=x1+x2+x3+x4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>b=y1+y2+y3+y4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>c=z1+z2+z3+z4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1767,37 +1708,43 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1806,6 +1753,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1813,6 +1805,81 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1835,132 +1902,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2303,40 +2244,40 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="30"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="30"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
@@ -2354,14 +2295,14 @@
       <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
@@ -2371,12 +2312,12 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
@@ -2386,40 +2327,40 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="28" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29" t="s">
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2432,12 +2373,12 @@
       <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
@@ -2449,16 +2390,16 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="29"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
@@ -2470,10 +2411,10 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
@@ -2490,7 +2431,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="29"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
@@ -2507,7 +2448,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="29"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
@@ -2524,7 +2465,7 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="29"/>
+      <c r="K13" s="36"/>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
@@ -2541,7 +2482,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="29"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
@@ -2553,16 +2494,16 @@
       <c r="E15" s="7"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="39"/>
+      <c r="K15" s="41"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
@@ -2574,10 +2515,10 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="29"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="36"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
@@ -2594,7 +2535,7 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="29"/>
+      <c r="K17" s="36"/>
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
@@ -2611,7 +2552,7 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="29"/>
+      <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
@@ -2628,7 +2569,7 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="29"/>
+      <c r="K19" s="36"/>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
@@ -2645,29 +2586,35 @@
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="29"/>
+      <c r="K20" s="36"/>
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I15:I16"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="J3:K3"/>
@@ -2684,12 +2631,6 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I15:I16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2702,8 +2643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2737,115 +2678,115 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="43" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="45" t="s">
+      <c r="F3" s="85"/>
+      <c r="G3" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="88"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="60" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="57" t="s">
+      <c r="G4" s="69"/>
+      <c r="H4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="81"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="85"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="79"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="47"/>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="82"/>
-      <c r="B6" s="67" t="s">
+      <c r="A6" s="84"/>
+      <c r="B6" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="72" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="88"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51" t="s">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="55" t="s">
+      <c r="H7" s="61"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="79"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
@@ -2855,8 +2796,8 @@
       <c r="D8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="14" t="s">
         <v>46</v>
       </c>
@@ -2866,101 +2807,67 @@
       <c r="I8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="56"/>
+      <c r="J8" s="64"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
-      <c r="B9" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="90" t="s">
-        <v>64</v>
-      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="7"/>
       <c r="F9" s="22"/>
       <c r="G9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="89" t="s">
-        <v>69</v>
-      </c>
+      <c r="H9" s="27"/>
       <c r="I9" s="24"/>
-      <c r="J9" s="40"/>
+      <c r="J9" s="57"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
-      <c r="B10" s="90" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="90" t="s">
-        <v>65</v>
-      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="7"/>
       <c r="F10" s="22"/>
       <c r="G10" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="89" t="s">
-        <v>68</v>
-      </c>
+      <c r="H10" s="27"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="41"/>
+      <c r="J10" s="58"/>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
-      <c r="B11" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="90" t="s">
-        <v>66</v>
-      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="7"/>
       <c r="F11" s="22"/>
       <c r="G11" s="21"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="41"/>
+      <c r="J11" s="58"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
-      <c r="B12" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="90" t="s">
-        <v>67</v>
-      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="7"/>
       <c r="F12" s="22"/>
       <c r="G12" s="21"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="41"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="91" t="s">
-        <v>72</v>
-      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="25" t="s">
         <v>48</v>
       </c>
@@ -2968,34 +2875,34 @@
       <c r="G13" s="21"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="42"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51" t="s">
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="F14" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55" t="s">
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="63" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="79"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="12" t="s">
         <v>41</v>
       </c>
@@ -3005,8 +2912,8 @@
       <c r="D15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="14" t="s">
         <v>46</v>
       </c>
@@ -3016,7 +2923,7 @@
       <c r="I15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="56"/>
+      <c r="J15" s="64"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
@@ -3030,7 +2937,7 @@
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="40"/>
+      <c r="J16" s="57"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
@@ -3044,7 +2951,7 @@
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="41"/>
+      <c r="J17" s="58"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
@@ -3056,7 +2963,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="41"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
@@ -3068,7 +2975,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="41"/>
+      <c r="J19" s="58"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
@@ -3084,34 +2991,34 @@
       <c r="G20" s="21"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="42"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51" t="s">
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="52" t="s">
+      <c r="G21" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="55" t="s">
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="63" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="79"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="12" t="s">
         <v>41</v>
       </c>
@@ -3121,8 +3028,8 @@
       <c r="D22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
       <c r="G22" s="14" t="s">
         <v>46</v>
       </c>
@@ -3132,7 +3039,7 @@
       <c r="I22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="56"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
@@ -3146,7 +3053,7 @@
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="40"/>
+      <c r="J23" s="57"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
@@ -3160,7 +3067,7 @@
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="41"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
@@ -3172,7 +3079,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="41"/>
+      <c r="J25" s="58"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
@@ -3184,7 +3091,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="41"/>
+      <c r="J26" s="58"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
@@ -3200,34 +3107,34 @@
       <c r="G27" s="21"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="42"/>
+      <c r="J27" s="59"/>
     </row>
     <row r="28" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="51" t="s">
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="52" t="s">
+      <c r="G28" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="53"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="55" t="s">
+      <c r="H28" s="61"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="63" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A29" s="79"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
       </c>
@@ -3237,8 +3144,8 @@
       <c r="D29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="14" t="s">
         <v>46</v>
       </c>
@@ -3248,7 +3155,7 @@
       <c r="I29" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="56"/>
+      <c r="J29" s="64"/>
     </row>
     <row r="30" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
@@ -3262,7 +3169,7 @@
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="40"/>
+      <c r="J30" s="57"/>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
@@ -3276,7 +3183,7 @@
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="41"/>
+      <c r="J31" s="58"/>
     </row>
     <row r="32" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
@@ -3288,7 +3195,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
-      <c r="J32" s="41"/>
+      <c r="J32" s="58"/>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
@@ -3300,7 +3207,7 @@
       <c r="G33" s="21"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
-      <c r="J33" s="41"/>
+      <c r="J33" s="58"/>
     </row>
     <row r="34" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
@@ -3316,43 +3223,71 @@
       <c r="G34" s="21"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="42"/>
+      <c r="J34" s="59"/>
     </row>
     <row r="35" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="49"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="91"/>
       <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="77"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="54"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J37" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="H5:J5"/>
@@ -3369,34 +3304,6 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J16:J20"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="56">
   <si>
     <t xml:space="preserve">颇尔奥星包装科技（北京）有限责任公司                                                                                            </t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1025,66 +1025,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>x1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>x3</t>
-  </si>
-  <si>
-    <t>x4</t>
-  </si>
-  <si>
-    <t>y1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>y2</t>
-  </si>
-  <si>
-    <t>y3</t>
-  </si>
-  <si>
-    <t>y4</t>
-  </si>
-  <si>
     <t>SPM-PE-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>z1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>z2</t>
-  </si>
-  <si>
-    <t>z3</t>
-  </si>
-  <si>
-    <t>z4</t>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>a+b</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>a=x1+x2+x3+x4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>b=y1+y2+y3+y4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>c=z1+z2+z3+z4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1767,37 +1708,43 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1806,6 +1753,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1813,6 +1805,81 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1835,132 +1902,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2303,40 +2244,40 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="30"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="30"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
@@ -2354,14 +2295,14 @@
       <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
@@ -2371,12 +2312,12 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
@@ -2386,40 +2327,40 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="28" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29" t="s">
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2432,12 +2373,12 @@
       <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
@@ -2449,16 +2390,16 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="29"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
@@ -2470,10 +2411,10 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
@@ -2490,7 +2431,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="29"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
@@ -2507,7 +2448,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="29"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
@@ -2524,7 +2465,7 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="29"/>
+      <c r="K13" s="36"/>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
@@ -2541,7 +2482,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="29"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
@@ -2553,16 +2494,16 @@
       <c r="E15" s="7"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="39"/>
+      <c r="K15" s="41"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
@@ -2574,10 +2515,10 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="29"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="36"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
@@ -2594,7 +2535,7 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="29"/>
+      <c r="K17" s="36"/>
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
@@ -2611,7 +2552,7 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="29"/>
+      <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
@@ -2628,7 +2569,7 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="29"/>
+      <c r="K19" s="36"/>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
@@ -2645,29 +2586,35 @@
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="29"/>
+      <c r="K20" s="36"/>
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I15:I16"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="J3:K3"/>
@@ -2684,12 +2631,6 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I15:I16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2703,7 +2644,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2737,115 +2678,115 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="43" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="45" t="s">
+      <c r="F3" s="85"/>
+      <c r="G3" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="88"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="60" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="57" t="s">
+      <c r="G4" s="69"/>
+      <c r="H4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="81"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="85"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="79"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="47"/>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="82"/>
-      <c r="B6" s="67" t="s">
+      <c r="A6" s="84"/>
+      <c r="B6" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="72" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="88"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51" t="s">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="55" t="s">
+      <c r="H7" s="61"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="79"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
@@ -2855,8 +2796,8 @@
       <c r="D8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="14" t="s">
         <v>46</v>
       </c>
@@ -2866,101 +2807,67 @@
       <c r="I8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="56"/>
+      <c r="J8" s="64"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
-      <c r="B9" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="90" t="s">
-        <v>64</v>
-      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="7"/>
       <c r="F9" s="22"/>
       <c r="G9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="89" t="s">
-        <v>69</v>
-      </c>
+      <c r="H9" s="27"/>
       <c r="I9" s="24"/>
-      <c r="J9" s="40"/>
+      <c r="J9" s="57"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
-      <c r="B10" s="90" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="90" t="s">
-        <v>65</v>
-      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="7"/>
       <c r="F10" s="22"/>
       <c r="G10" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="89" t="s">
-        <v>68</v>
-      </c>
+      <c r="H10" s="27"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="41"/>
+      <c r="J10" s="58"/>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
-      <c r="B11" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="90" t="s">
-        <v>66</v>
-      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="7"/>
       <c r="F11" s="22"/>
       <c r="G11" s="21"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="41"/>
+      <c r="J11" s="58"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
-      <c r="B12" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="90" t="s">
-        <v>67</v>
-      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="7"/>
       <c r="F12" s="22"/>
       <c r="G12" s="21"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="41"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="91" t="s">
-        <v>72</v>
-      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="25" t="s">
         <v>48</v>
       </c>
@@ -2968,34 +2875,34 @@
       <c r="G13" s="21"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="42"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51" t="s">
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="F14" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55" t="s">
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="63" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="79"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="12" t="s">
         <v>41</v>
       </c>
@@ -3005,8 +2912,8 @@
       <c r="D15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="14" t="s">
         <v>46</v>
       </c>
@@ -3016,7 +2923,7 @@
       <c r="I15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="56"/>
+      <c r="J15" s="64"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
@@ -3030,7 +2937,7 @@
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="40"/>
+      <c r="J16" s="57"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
@@ -3044,7 +2951,7 @@
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="41"/>
+      <c r="J17" s="58"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
@@ -3056,7 +2963,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="41"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
@@ -3068,7 +2975,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="41"/>
+      <c r="J19" s="58"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
@@ -3084,34 +2991,34 @@
       <c r="G20" s="21"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="42"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51" t="s">
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="52" t="s">
+      <c r="G21" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="55" t="s">
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="63" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="79"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="12" t="s">
         <v>41</v>
       </c>
@@ -3121,8 +3028,8 @@
       <c r="D22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
       <c r="G22" s="14" t="s">
         <v>46</v>
       </c>
@@ -3132,7 +3039,7 @@
       <c r="I22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="56"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
@@ -3146,7 +3053,7 @@
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="40"/>
+      <c r="J23" s="57"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
@@ -3160,7 +3067,7 @@
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="41"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
@@ -3172,7 +3079,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="41"/>
+      <c r="J25" s="58"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
@@ -3184,7 +3091,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="41"/>
+      <c r="J26" s="58"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
@@ -3200,34 +3107,34 @@
       <c r="G27" s="21"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="42"/>
+      <c r="J27" s="59"/>
     </row>
     <row r="28" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="51" t="s">
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="52" t="s">
+      <c r="G28" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="53"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="55" t="s">
+      <c r="H28" s="61"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="63" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A29" s="79"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
       </c>
@@ -3237,8 +3144,8 @@
       <c r="D29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="14" t="s">
         <v>46</v>
       </c>
@@ -3248,7 +3155,7 @@
       <c r="I29" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="56"/>
+      <c r="J29" s="64"/>
     </row>
     <row r="30" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
@@ -3262,7 +3169,7 @@
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="40"/>
+      <c r="J30" s="57"/>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
@@ -3276,7 +3183,7 @@
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="41"/>
+      <c r="J31" s="58"/>
     </row>
     <row r="32" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
@@ -3288,7 +3195,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
-      <c r="J32" s="41"/>
+      <c r="J32" s="58"/>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
@@ -3300,7 +3207,7 @@
       <c r="G33" s="21"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
-      <c r="J33" s="41"/>
+      <c r="J33" s="58"/>
     </row>
     <row r="34" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
@@ -3316,43 +3223,71 @@
       <c r="G34" s="21"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="42"/>
+      <c r="J34" s="59"/>
     </row>
     <row r="35" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="49"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="91"/>
       <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="77"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="54"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J37" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="H5:J5"/>
@@ -3369,34 +3304,6 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J16:J20"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="10860" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="10860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="吹膜供料记录" sheetId="5" r:id="rId1"/>
     <sheet name="20160630" sheetId="6" r:id="rId2"/>
+    <sheet name="20170926" sheetId="8" r:id="rId3"/>
+    <sheet name="20170926 (2)" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="102">
   <si>
     <t xml:space="preserve">颇尔奥星包装科技（北京）有限责任公司                                                                                            </t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1025,15 +1027,178 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>x1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>y1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y4</t>
+  </si>
+  <si>
     <t>SPM-PE-</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>z1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>z2</t>
+  </si>
+  <si>
+    <t>z3</t>
+  </si>
+  <si>
+    <t>z4</t>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a+b</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=x1+x2+x3+x4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>b=y1+y2+y3+y4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c=z1+z2+z3+z4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">颇尔奥星包装科技（北京）有限责任公司                                                                                            </t>
+  </si>
+  <si>
+    <t>SOP-MFG-301-R06A</t>
+  </si>
+  <si>
+    <t>生产指令编号：</t>
+  </si>
+  <si>
+    <t>物料</t>
+  </si>
+  <si>
+    <t>料仓</t>
+  </si>
+  <si>
+    <t>原料代码</t>
+  </si>
+  <si>
+    <t>原料批号</t>
+  </si>
+  <si>
+    <t>外中内层（A、B1、C）</t>
+  </si>
+  <si>
+    <t>SPM-PE-</t>
+  </si>
+  <si>
+    <t>中层（B2）</t>
+  </si>
+  <si>
+    <t>供料量： kg</t>
+  </si>
+  <si>
+    <t>原料抽查结果</t>
+  </si>
+  <si>
+    <t>供料人</t>
+  </si>
+  <si>
+    <t>复核人</t>
+  </si>
+  <si>
+    <t>外中内层
+（A+B1+C）</t>
+  </si>
+  <si>
+    <t>中层
+（B2）</t>
+  </si>
+  <si>
+    <t>吹膜供料记录
+Feeding record of extrusion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：原料抽查项目：形状均匀为颗粒状，颗粒大小应均匀，尺寸在任意方向上应为2～5mm；应无色粒、异味等。外观应干燥，无气泡和机械杂质；无肉眼可见黑点、毛发等异物。合格划“√”，不合格“×”。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>供料日期时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合格 不合格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料代码</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料批号</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>中层（B2）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>供料量/kg</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹膜供料记录
+Feeding record of extrusion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>-----</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>外中内层（A+B1+C）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1114,6 +1279,29 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1129,7 +1317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1617,6 +1805,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1626,7 +1825,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1717,6 +1916,30 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1756,10 +1979,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1780,108 +2105,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1902,6 +2125,57 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2210,7 +2484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9:J10"/>
     </sheetView>
   </sheetViews>
@@ -2244,40 +2518,40 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="34"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="34"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
@@ -2295,14 +2569,14 @@
       <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
@@ -2312,12 +2586,12 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
@@ -2327,40 +2601,40 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="38" t="s">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36" t="s">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="36"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2373,12 +2647,12 @@
       <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
@@ -2390,16 +2664,16 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="36"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
@@ -2411,10 +2685,10 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="36"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="44"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
@@ -2431,7 +2705,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="36"/>
+      <c r="K11" s="44"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
@@ -2448,7 +2722,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="36"/>
+      <c r="K12" s="44"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
@@ -2465,7 +2739,7 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="36"/>
+      <c r="K13" s="44"/>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
@@ -2482,7 +2756,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="36"/>
+      <c r="K14" s="44"/>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
@@ -2494,16 +2768,16 @@
       <c r="E15" s="7"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="37" t="s">
+      <c r="J15" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="41"/>
+      <c r="K15" s="49"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
@@ -2515,10 +2789,10 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="36"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="44"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
@@ -2535,7 +2809,7 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="36"/>
+      <c r="K17" s="44"/>
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
@@ -2552,7 +2826,7 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="36"/>
+      <c r="K18" s="44"/>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
@@ -2569,7 +2843,7 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="36"/>
+      <c r="K19" s="44"/>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
@@ -2586,26 +2860,26 @@
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="36"/>
+      <c r="K20" s="44"/>
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -2643,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2678,115 +2952,115 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="85" t="s">
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="85"/>
-      <c r="G3" s="87" t="s">
+      <c r="F3" s="93"/>
+      <c r="G3" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="88"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="96"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="65" t="s">
+      <c r="G4" s="71"/>
+      <c r="H4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="83"/>
-      <c r="B5" s="72" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="79"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="81"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="89"/>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="84"/>
-      <c r="B6" s="75" t="s">
+      <c r="A6" s="86"/>
+      <c r="B6" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="80" t="s">
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="81"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="92"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="43" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63" t="s">
+      <c r="H7" s="63"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="51" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="56"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
@@ -2796,8 +3070,8 @@
       <c r="D8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="14" t="s">
         <v>46</v>
       </c>
@@ -2807,67 +3081,101 @@
       <c r="I8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="64"/>
+      <c r="J8" s="52"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="22"/>
       <c r="G9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="27"/>
+      <c r="H9" s="27" t="s">
+        <v>69</v>
+      </c>
       <c r="I9" s="24"/>
-      <c r="J9" s="57"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
+      <c r="B10" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>65</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="22"/>
       <c r="G10" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="27"/>
+      <c r="H10" s="27" t="s">
+        <v>68</v>
+      </c>
       <c r="I10" s="24"/>
-      <c r="J10" s="58"/>
+      <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+      <c r="B11" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>66</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="22"/>
       <c r="G11" s="21"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="58"/>
+      <c r="J11" s="60"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="B12" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>67</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="22"/>
       <c r="G12" s="21"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="58"/>
+      <c r="J12" s="60"/>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="B13" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>72</v>
+      </c>
       <c r="E13" s="25" t="s">
         <v>48</v>
       </c>
@@ -2875,34 +3183,34 @@
       <c r="G13" s="21"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="59"/>
+      <c r="J13" s="61"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="43" t="s">
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="63" t="s">
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="51" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="56"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="12" t="s">
         <v>41</v>
       </c>
@@ -2912,8 +3220,8 @@
       <c r="D15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
       <c r="G15" s="14" t="s">
         <v>46</v>
       </c>
@@ -2923,7 +3231,7 @@
       <c r="I15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="64"/>
+      <c r="J15" s="52"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
@@ -2937,7 +3245,7 @@
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="57"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
@@ -2951,7 +3259,7 @@
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="58"/>
+      <c r="J17" s="60"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
@@ -2963,7 +3271,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="58"/>
+      <c r="J18" s="60"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
@@ -2975,7 +3283,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="58"/>
+      <c r="J19" s="60"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
@@ -2991,34 +3299,34 @@
       <c r="G20" s="21"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="59"/>
+      <c r="J20" s="61"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="43" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="60" t="s">
+      <c r="G21" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="63" t="s">
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="51" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="56"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="12" t="s">
         <v>41</v>
       </c>
@@ -3028,8 +3336,8 @@
       <c r="D22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="14" t="s">
         <v>46</v>
       </c>
@@ -3039,7 +3347,7 @@
       <c r="I22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="64"/>
+      <c r="J22" s="52"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
@@ -3053,7 +3361,7 @@
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="57"/>
+      <c r="J23" s="59"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
@@ -3067,7 +3375,7 @@
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="58"/>
+      <c r="J24" s="60"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
@@ -3079,7 +3387,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="58"/>
+      <c r="J25" s="60"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
@@ -3091,7 +3399,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="58"/>
+      <c r="J26" s="60"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
@@ -3107,34 +3415,34 @@
       <c r="G27" s="21"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="59"/>
+      <c r="J27" s="61"/>
     </row>
     <row r="28" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="43" t="s">
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="60" t="s">
+      <c r="G28" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="61"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="63" t="s">
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="51" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A29" s="56"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
       </c>
@@ -3144,8 +3452,8 @@
       <c r="D29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
       <c r="G29" s="14" t="s">
         <v>46</v>
       </c>
@@ -3155,7 +3463,7 @@
       <c r="I29" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="64"/>
+      <c r="J29" s="52"/>
     </row>
     <row r="30" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
@@ -3169,7 +3477,7 @@
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="57"/>
+      <c r="J30" s="59"/>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
@@ -3183,7 +3491,7 @@
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="58"/>
+      <c r="J31" s="60"/>
     </row>
     <row r="32" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
@@ -3195,7 +3503,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
-      <c r="J32" s="58"/>
+      <c r="J32" s="60"/>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
@@ -3207,7 +3515,7 @@
       <c r="G33" s="21"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
-      <c r="J33" s="58"/>
+      <c r="J33" s="60"/>
     </row>
     <row r="34" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
@@ -3223,44 +3531,43 @@
       <c r="G34" s="21"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="59"/>
+      <c r="J34" s="61"/>
     </row>
     <row r="35" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="89" t="s">
+      <c r="B35" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="91"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="99"/>
       <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="54"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="56"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J37" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="J16:J20"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="G3:J3"/>
@@ -3292,6 +3599,7 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="A36:J36"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="J9:J13"/>
@@ -3303,11 +3611,730 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J16:J20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.52" right="0.28999999999999998" top="0.62" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="94" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="104" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+    </row>
+    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="100" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="100"/>
+      <c r="D4" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+    </row>
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="100"/>
+      <c r="B5" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="100"/>
+      <c r="D5" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+    </row>
+    <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="100"/>
+      <c r="B6" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="100"/>
+      <c r="D6" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="100" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="100"/>
+      <c r="E7" s="102" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="102" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+    </row>
+    <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+    </row>
+    <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+    </row>
+    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+    </row>
+    <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+    </row>
+    <row r="28" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+    </row>
+    <row r="29" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+    </row>
+    <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="33"/>
+    </row>
+    <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="100" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="107"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="109" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="110"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="102" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="102" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="100"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+    </row>
+    <row r="6" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+    </row>
+    <row r="7" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+    </row>
+    <row r="8" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+    </row>
+    <row r="9" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+    </row>
+    <row r="10" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+    </row>
+    <row r="13" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+    </row>
+    <row r="14" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+    </row>
+    <row r="15" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="16" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+    </row>
+    <row r="17" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+    </row>
+    <row r="18" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+    </row>
+    <row r="19" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+    </row>
+    <row r="20" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+    </row>
+    <row r="21" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="113"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="115" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="114"/>
+      <c r="K21" s="113"/>
+    </row>
+    <row r="22" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="116"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="A2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.35" header="0.31496062992125984" footer="0.21"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2776061E-23D7-7F4F-AE93-AC9C04550FE7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="10860" activeTab="3"/>
+    <workbookView xWindow="4380" yWindow="460" windowWidth="20460" windowHeight="15040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="吹膜供料记录" sheetId="5" r:id="rId1"/>
@@ -1197,19 +1198,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1217,21 +1218,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1283,7 +1284,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1291,14 +1292,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1940,6 +1941,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1952,20 +1968,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1976,14 +1980,140 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1997,134 +2127,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2138,11 +2145,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2174,13 +2178,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2196,7 +2197,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2271,6 +2272,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2306,6 +2324,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2481,26 +2516,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
-    <col min="2" max="5" width="13.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="13.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.75" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2517,43 +2552,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:11" ht="45.75" customHeight="1">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-    </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="42" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="42"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="42"/>
-    </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K3" s="41"/>
+    </row>
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2569,16 +2604,16 @@
       <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-    </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+    </row>
+    <row r="5" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -2586,14 +2621,14 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-    </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -2601,40 +2636,40 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-    </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="44" t="s">
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="46" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44" t="s">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="44"/>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A8" s="40"/>
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2647,14 +2682,14 @@
       <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-    </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -2664,18 +2699,18 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="44"/>
-    </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K9" s="40"/>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -2685,12 +2720,12 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="44"/>
-    </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H10" s="40"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -2705,9 +2740,9 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="44"/>
-    </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K11" s="40"/>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -2722,9 +2757,9 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="44"/>
-    </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K12" s="40"/>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -2739,9 +2774,9 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="44"/>
-    </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K13" s="40"/>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2756,9 +2791,9 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="44"/>
-    </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K14" s="40"/>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
@@ -2768,18 +2803,18 @@
       <c r="E15" s="7"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="49"/>
-    </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K15" s="50"/>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -2789,12 +2824,12 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="44"/>
-    </row>
-    <row r="17" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H16" s="40"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
+    </row>
+    <row r="17" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
@@ -2809,9 +2844,9 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="44"/>
-    </row>
-    <row r="18" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K17" s="40"/>
+    </row>
+    <row r="18" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -2826,9 +2861,9 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="44"/>
-    </row>
-    <row r="19" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K18" s="40"/>
+    </row>
+    <row r="19" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
@@ -2843,9 +2878,9 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="44"/>
-    </row>
-    <row r="20" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K19" s="40"/>
+    </row>
+    <row r="20" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
@@ -2860,35 +2895,29 @@
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="44"/>
-    </row>
-    <row r="21" spans="1:11" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="40" t="s">
+      <c r="K20" s="40"/>
+    </row>
+    <row r="21" spans="1:11" s="4" customFormat="1" ht="36" customHeight="1">
+      <c r="A21" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-    </row>
-    <row r="22" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+    </row>
+    <row r="22" spans="1:11" ht="17.25" customHeight="1">
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I15:I16"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="J3:K3"/>
@@ -2905,6 +2934,12 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I15:I16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2914,28 +2949,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="7.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="7.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2951,116 +2986,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-    </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="94" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="93" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="93"/>
-      <c r="G3" s="95" t="s">
+      <c r="F3" s="51"/>
+      <c r="G3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="96"/>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="84" t="s">
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
+      <c r="A4" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="70" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="67" t="s">
+      <c r="G4" s="72"/>
+      <c r="H4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-    </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="85"/>
-      <c r="B5" s="74" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
+      <c r="A5" s="86"/>
+      <c r="B5" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="80" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
-    </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="86"/>
-      <c r="B6" s="77" t="s">
+      <c r="G5" s="82"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="92"/>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
+      <c r="A6" s="87"/>
+      <c r="B6" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="82" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="83"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="92"/>
-    </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="57" t="s">
+      <c r="G6" s="84"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95"/>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
+      <c r="A7" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66" t="s">
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="51" t="s">
+      <c r="H7" s="61"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="58"/>
+    <row r="8" spans="1:10" s="4" customFormat="1" ht="28">
+      <c r="A8" s="89"/>
       <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
@@ -3070,8 +3105,8 @@
       <c r="D8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3081,9 +3116,9 @@
       <c r="I8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="52"/>
-    </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J8" s="64"/>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="28" t="s">
         <v>55</v>
@@ -3103,9 +3138,9 @@
         <v>69</v>
       </c>
       <c r="I9" s="24"/>
-      <c r="J9" s="59"/>
-    </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J9" s="65"/>
+    </row>
+    <row r="10" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="15"/>
       <c r="B10" s="28" t="s">
         <v>56</v>
@@ -3125,9 +3160,9 @@
         <v>68</v>
       </c>
       <c r="I10" s="24"/>
-      <c r="J10" s="60"/>
-    </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J10" s="66"/>
+    </row>
+    <row r="11" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="28" t="s">
         <v>57</v>
@@ -3143,9 +3178,9 @@
       <c r="G11" s="21"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="60"/>
-    </row>
-    <row r="12" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J11" s="66"/>
+    </row>
+    <row r="12" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="15"/>
       <c r="B12" s="28" t="s">
         <v>58</v>
@@ -3161,9 +3196,9 @@
       <c r="G12" s="21"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="60"/>
-    </row>
-    <row r="13" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="66"/>
+    </row>
+    <row r="13" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A13" s="16" t="s">
         <v>37</v>
       </c>
@@ -3183,34 +3218,34 @@
       <c r="G13" s="21"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="61"/>
-    </row>
-    <row r="14" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="57" t="s">
+      <c r="J13" s="67"/>
+    </row>
+    <row r="14" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
+      <c r="A14" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66" t="s">
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="62" t="s">
+      <c r="G14" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="63"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="51" t="s">
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="63" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="58"/>
+    <row r="15" spans="1:10" s="4" customFormat="1" ht="28">
+      <c r="A15" s="89"/>
       <c r="B15" s="12" t="s">
         <v>41</v>
       </c>
@@ -3220,8 +3255,8 @@
       <c r="D15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="14" t="s">
         <v>46</v>
       </c>
@@ -3231,9 +3266,9 @@
       <c r="I15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="52"/>
-    </row>
-    <row r="16" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J15" s="64"/>
+    </row>
+    <row r="16" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3245,9 +3280,9 @@
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="59"/>
-    </row>
-    <row r="17" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J16" s="65"/>
+    </row>
+    <row r="17" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3259,9 +3294,9 @@
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="60"/>
-    </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J17" s="66"/>
+    </row>
+    <row r="18" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3271,9 +3306,9 @@
       <c r="G18" s="21"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="60"/>
-    </row>
-    <row r="19" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J18" s="66"/>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="15"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -3283,9 +3318,9 @@
       <c r="G19" s="21"/>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="60"/>
-    </row>
-    <row r="20" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="66"/>
+    </row>
+    <row r="20" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="16" t="s">
         <v>37</v>
       </c>
@@ -3299,34 +3334,34 @@
       <c r="G20" s="21"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="61"/>
-    </row>
-    <row r="21" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="57" t="s">
+      <c r="J20" s="67"/>
+    </row>
+    <row r="21" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
+      <c r="A21" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66" t="s">
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="65" t="s">
+      <c r="F21" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="62" t="s">
+      <c r="G21" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="63"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="51" t="s">
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="63" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="58"/>
+    <row r="22" spans="1:10" s="4" customFormat="1" ht="28">
+      <c r="A22" s="89"/>
       <c r="B22" s="12" t="s">
         <v>41</v>
       </c>
@@ -3336,8 +3371,8 @@
       <c r="D22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="14" t="s">
         <v>46</v>
       </c>
@@ -3347,9 +3382,9 @@
       <c r="I22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="52"/>
-    </row>
-    <row r="23" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J22" s="64"/>
+    </row>
+    <row r="23" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A23" s="15"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3361,9 +3396,9 @@
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="59"/>
-    </row>
-    <row r="24" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J23" s="65"/>
+    </row>
+    <row r="24" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A24" s="15"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -3375,9 +3410,9 @@
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="60"/>
-    </row>
-    <row r="25" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J24" s="66"/>
+    </row>
+    <row r="25" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="15"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -3387,9 +3422,9 @@
       <c r="G25" s="21"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="60"/>
-    </row>
-    <row r="26" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J25" s="66"/>
+    </row>
+    <row r="26" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="15"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -3399,9 +3434,9 @@
       <c r="G26" s="21"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="60"/>
-    </row>
-    <row r="27" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J26" s="66"/>
+    </row>
+    <row r="27" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A27" s="16" t="s">
         <v>37</v>
       </c>
@@ -3415,34 +3450,34 @@
       <c r="G27" s="21"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="61"/>
-    </row>
-    <row r="28" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="57" t="s">
+      <c r="J27" s="67"/>
+    </row>
+    <row r="28" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
+      <c r="A28" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="66" t="s">
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="65" t="s">
+      <c r="F28" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="62" t="s">
+      <c r="G28" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="63"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="51" t="s">
+      <c r="H28" s="61"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="63" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A29" s="58"/>
+    <row r="29" spans="1:10" s="4" customFormat="1" ht="28">
+      <c r="A29" s="89"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
       </c>
@@ -3452,8 +3487,8 @@
       <c r="D29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
       <c r="G29" s="14" t="s">
         <v>46</v>
       </c>
@@ -3463,9 +3498,9 @@
       <c r="I29" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="52"/>
-    </row>
-    <row r="30" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J29" s="64"/>
+    </row>
+    <row r="30" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="15"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -3477,9 +3512,9 @@
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="59"/>
-    </row>
-    <row r="31" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J30" s="65"/>
+    </row>
+    <row r="31" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="15"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -3491,9 +3526,9 @@
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="60"/>
-    </row>
-    <row r="32" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J31" s="66"/>
+    </row>
+    <row r="32" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="15"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -3503,9 +3538,9 @@
       <c r="G32" s="21"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
-      <c r="J32" s="60"/>
-    </row>
-    <row r="33" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J32" s="66"/>
+    </row>
+    <row r="33" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="15"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -3515,9 +3550,9 @@
       <c r="G33" s="21"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
-      <c r="J33" s="60"/>
-    </row>
-    <row r="34" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J33" s="66"/>
+    </row>
+    <row r="34" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A34" s="16" t="s">
         <v>37</v>
       </c>
@@ -3531,58 +3566,55 @@
       <c r="G34" s="21"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="61"/>
-    </row>
-    <row r="35" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J34" s="67"/>
+    </row>
+    <row r="35" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="97" t="s">
+      <c r="B35" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="99"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="57"/>
       <c r="J35" s="18"/>
     </row>
-    <row r="36" spans="1:10" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="53" t="s">
+    <row r="36" spans="1:10" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A36" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="56"/>
-    </row>
-    <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="97"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="99"/>
+    </row>
+    <row r="37" spans="1:10" ht="17.25" customHeight="1">
       <c r="J37" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="J16:J20"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="H4:J4"/>
@@ -3599,19 +3631,22 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J27"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="J16:J20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3621,23 +3656,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="4" width="14.875" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.625" customWidth="1"/>
+    <col min="6" max="7" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>73</v>
       </c>
@@ -3650,18 +3685,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="104" t="s">
+    <row r="2" spans="1:7" ht="57.75" customHeight="1">
+      <c r="A2" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-    </row>
-    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+    </row>
+    <row r="3" spans="1:7" ht="22.5" customHeight="1">
       <c r="A3" s="31" t="s">
         <v>75</v>
       </c>
@@ -3672,84 +3707,84 @@
       <c r="F3" s="32"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="100" t="s">
+    <row r="4" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A4" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="100"/>
+      <c r="C4" s="102"/>
       <c r="D4" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-    </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100" t="s">
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+    </row>
+    <row r="5" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A5" s="102"/>
+      <c r="B5" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="100"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-    </row>
-    <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="100"/>
-      <c r="B6" s="100" t="s">
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+    </row>
+    <row r="6" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A6" s="102"/>
+      <c r="B6" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="100"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-    </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="100" t="s">
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A7" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="102" t="s">
+      <c r="D7" s="102"/>
+      <c r="E7" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="102" t="s">
+      <c r="F7" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="102" t="s">
+      <c r="G7" s="104" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="37" t="s">
         <v>87</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-    </row>
-    <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+    </row>
+    <row r="9" spans="1:7" ht="22.5" customHeight="1">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -3760,7 +3795,7 @@
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
     </row>
-    <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="22.5" customHeight="1">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -3769,7 +3804,7 @@
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="22.5" customHeight="1">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -3778,7 +3813,7 @@
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
     </row>
-    <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="22.5" customHeight="1">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -3787,7 +3822,7 @@
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="22.5" customHeight="1">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -3796,7 +3831,7 @@
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
     </row>
-    <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="22.5" customHeight="1">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -3805,7 +3840,7 @@
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="22.5" customHeight="1">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -3814,7 +3849,7 @@
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="22.5" customHeight="1">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -3823,7 +3858,7 @@
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="22.5" customHeight="1">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -3832,7 +3867,7 @@
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
     </row>
-    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="22.5" customHeight="1">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -3841,7 +3876,7 @@
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
     </row>
-    <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="22.5" customHeight="1">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -3850,7 +3885,7 @@
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="22.5" customHeight="1">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -3859,7 +3894,7 @@
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="22.5" customHeight="1">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -3868,7 +3903,7 @@
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
     </row>
-    <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="22.5" customHeight="1">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -3877,7 +3912,7 @@
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="22.5" customHeight="1">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -3886,7 +3921,7 @@
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="22.5" customHeight="1">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -3895,7 +3930,7 @@
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="22.5" customHeight="1">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -3904,7 +3939,7 @@
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="22.5" customHeight="1">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -3913,7 +3948,7 @@
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="22.5" customHeight="1">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -3922,7 +3957,7 @@
       <c r="F27" s="36"/>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="22.5" customHeight="1">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -3931,26 +3966,19 @@
       <c r="F28" s="36"/>
       <c r="G28" s="36"/>
     </row>
-    <row r="29" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="101" t="s">
+    <row r="29" spans="1:7" ht="63.75" customHeight="1">
+      <c r="A29" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3959,6 +3987,13 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3967,28 +4002,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.625" customWidth="1"/>
+    <col min="10" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>73</v>
       </c>
@@ -4005,22 +4040,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="104" t="s">
+    <row r="2" spans="1:11" ht="40.5" customHeight="1">
+      <c r="A2" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-    </row>
-    <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+    </row>
+    <row r="3" spans="1:11" ht="22.5" customHeight="1">
       <c r="A3" s="31" t="s">
         <v>75</v>
       </c>
@@ -4035,36 +4070,36 @@
       <c r="J3" s="32"/>
       <c r="K3" s="33"/>
     </row>
-    <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="100" t="s">
+    <row r="4" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A4" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="109" t="s">
+      <c r="D4" s="108"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="110"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="102" t="s">
+      <c r="G4" s="111"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="102" t="s">
+      <c r="J4" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="102" t="s">
+      <c r="K4" s="104" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100"/>
+    <row r="5" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="37" t="s">
         <v>94</v>
       </c>
@@ -4083,11 +4118,11 @@
       <c r="H5" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-    </row>
-    <row r="6" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+    </row>
+    <row r="6" spans="1:11" ht="20.25" customHeight="1">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -4102,235 +4137,53 @@
       <c r="J6" s="35"/>
       <c r="K6" s="35"/>
     </row>
-    <row r="7" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-    </row>
-    <row r="8" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-    </row>
-    <row r="9" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-    </row>
-    <row r="10" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-    </row>
-    <row r="11" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-    </row>
-    <row r="12" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-    </row>
-    <row r="13" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-    </row>
-    <row r="14" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-    </row>
-    <row r="15" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-    </row>
-    <row r="16" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-    </row>
-    <row r="17" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-    </row>
-    <row r="18" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-    </row>
-    <row r="19" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-    </row>
-    <row r="20" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-    </row>
-    <row r="21" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="112" t="s">
+    <row r="7" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A7" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="115" t="s">
+      <c r="B7" s="114"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="J21" s="114"/>
-      <c r="K21" s="113"/>
-    </row>
-    <row r="22" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="116" t="s">
+      <c r="J7" s="115"/>
+      <c r="K7" s="114"/>
+    </row>
+    <row r="8" spans="1:11" ht="42" customHeight="1">
+      <c r="A8" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="116"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A8:K8"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="A2:K2"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2776061E-23D7-7F4F-AE93-AC9C04550FE7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FE72FC63-6ADB-1E40-8FD9-4E21110F8E15}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="460" windowWidth="20460" windowHeight="15040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="吹膜供料记录" sheetId="5" r:id="rId1"/>
@@ -13,6 +13,9 @@
     <sheet name="20170926" sheetId="8" r:id="rId3"/>
     <sheet name="20170926 (2)" sheetId="9" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'20170926 (2)'!$1:$5</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -1941,37 +1944,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1980,6 +1980,135 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2001,148 +2130,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2553,40 +2556,40 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="41"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A4" s="6" t="s">
@@ -2604,14 +2607,14 @@
       <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -2621,12 +2624,12 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A6" s="6" t="s">
@@ -2636,40 +2639,40 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="39" t="s">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40" t="s">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2682,12 +2685,12 @@
       <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -2699,16 +2702,16 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="42" t="s">
+      <c r="J9" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="40"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -2720,10 +2723,10 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="44"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A11" s="6" t="s">
@@ -2740,7 +2743,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="40"/>
+      <c r="K11" s="44"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A12" s="6" t="s">
@@ -2757,7 +2760,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="40"/>
+      <c r="K12" s="44"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="6" t="s">
@@ -2774,7 +2777,7 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="40"/>
+      <c r="K13" s="44"/>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -2791,7 +2794,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="40"/>
+      <c r="K14" s="44"/>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A15" s="9" t="s">
@@ -2803,16 +2806,16 @@
       <c r="E15" s="7"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="42" t="s">
+      <c r="J15" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="50"/>
+      <c r="K15" s="49"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A16" s="6" t="s">
@@ -2824,10 +2827,10 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="44"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A17" s="6" t="s">
@@ -2844,7 +2847,7 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="40"/>
+      <c r="K17" s="44"/>
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A18" s="6" t="s">
@@ -2861,7 +2864,7 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="40"/>
+      <c r="K18" s="44"/>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A19" s="6" t="s">
@@ -2878,7 +2881,7 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="40"/>
+      <c r="K19" s="44"/>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A20" s="6" t="s">
@@ -2895,29 +2898,35 @@
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="40"/>
+      <c r="K20" s="44"/>
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="36" customHeight="1">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="1:11" ht="17.25" customHeight="1">
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I15:I16"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="J3:K3"/>
@@ -2934,12 +2943,6 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I15:I16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2987,102 +2990,102 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="51" t="s">
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="53" t="s">
+      <c r="F3" s="93"/>
+      <c r="G3" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="96"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="71" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="68" t="s">
+      <c r="G4" s="71"/>
+      <c r="H4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="86"/>
-      <c r="B5" s="75" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="81" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="82"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="92"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="89"/>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="78" t="s">
+      <c r="A6" s="86"/>
+      <c r="B6" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="83" t="s">
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="84"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="95"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="92"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="65" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="60" t="s">
@@ -3095,7 +3098,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A8" s="89"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
@@ -3105,8 +3108,8 @@
       <c r="D8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3138,7 +3141,7 @@
         <v>69</v>
       </c>
       <c r="I9" s="24"/>
-      <c r="J9" s="65"/>
+      <c r="J9" s="57"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="15"/>
@@ -3160,7 +3163,7 @@
         <v>68</v>
       </c>
       <c r="I10" s="24"/>
-      <c r="J10" s="66"/>
+      <c r="J10" s="58"/>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A11" s="15"/>
@@ -3178,7 +3181,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="66"/>
+      <c r="J11" s="58"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="15"/>
@@ -3196,7 +3199,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="66"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A13" s="16" t="s">
@@ -3218,21 +3221,21 @@
       <c r="G13" s="21"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="67"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59" t="s">
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="65" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="60" t="s">
@@ -3245,7 +3248,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A15" s="89"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="12" t="s">
         <v>41</v>
       </c>
@@ -3255,8 +3258,8 @@
       <c r="D15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
       <c r="G15" s="14" t="s">
         <v>46</v>
       </c>
@@ -3280,7 +3283,7 @@
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="65"/>
+      <c r="J16" s="57"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="15"/>
@@ -3294,7 +3297,7 @@
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="66"/>
+      <c r="J17" s="58"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="15"/>
@@ -3306,7 +3309,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="66"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="15"/>
@@ -3318,7 +3321,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="66"/>
+      <c r="J19" s="58"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="16" t="s">
@@ -3334,21 +3337,21 @@
       <c r="G20" s="21"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="67"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="59" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="65" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="60" t="s">
@@ -3361,7 +3364,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A22" s="89"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="12" t="s">
         <v>41</v>
       </c>
@@ -3371,8 +3374,8 @@
       <c r="D22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="14" t="s">
         <v>46</v>
       </c>
@@ -3396,7 +3399,7 @@
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="65"/>
+      <c r="J23" s="57"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A24" s="15"/>
@@ -3410,7 +3413,7 @@
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="66"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="15"/>
@@ -3422,7 +3425,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="66"/>
+      <c r="J25" s="58"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="15"/>
@@ -3434,7 +3437,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="66"/>
+      <c r="J26" s="58"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A27" s="16" t="s">
@@ -3450,21 +3453,21 @@
       <c r="G27" s="21"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="67"/>
+      <c r="J27" s="59"/>
     </row>
     <row r="28" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59" t="s">
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="58" t="s">
+      <c r="F28" s="65" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="60" t="s">
@@ -3477,7 +3480,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A29" s="89"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
       </c>
@@ -3487,8 +3490,8 @@
       <c r="D29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
       <c r="G29" s="14" t="s">
         <v>46</v>
       </c>
@@ -3512,7 +3515,7 @@
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="65"/>
+      <c r="J30" s="57"/>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="15"/>
@@ -3526,7 +3529,7 @@
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="66"/>
+      <c r="J31" s="58"/>
     </row>
     <row r="32" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="15"/>
@@ -3538,7 +3541,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
-      <c r="J32" s="66"/>
+      <c r="J32" s="58"/>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="15"/>
@@ -3550,7 +3553,7 @@
       <c r="G33" s="21"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
-      <c r="J33" s="66"/>
+      <c r="J33" s="58"/>
     </row>
     <row r="34" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A34" s="16" t="s">
@@ -3566,55 +3569,59 @@
       <c r="G34" s="21"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="67"/>
+      <c r="J34" s="59"/>
     </row>
     <row r="35" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="57"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="99"/>
       <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A36" s="96" t="s">
+      <c r="A36" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="98"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="99"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="54"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1">
       <c r="J37" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="H4:J4"/>
@@ -3631,22 +3638,18 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="J16:J20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3686,15 +3689,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="57.75" customHeight="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -3708,81 +3711,81 @@
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="102"/>
+      <c r="C4" s="100"/>
       <c r="D4" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102" t="s">
+      <c r="A5" s="100"/>
+      <c r="B5" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="102"/>
+      <c r="C5" s="100"/>
       <c r="D5" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A6" s="102"/>
-      <c r="B6" s="102" t="s">
+      <c r="A6" s="100"/>
+      <c r="B6" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="102"/>
+      <c r="C6" s="100"/>
       <c r="D6" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="104" t="s">
+      <c r="D7" s="100"/>
+      <c r="E7" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="104" t="s">
+      <c r="G7" s="102" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="37" t="s">
         <v>87</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1">
       <c r="A9" s="36"/>
@@ -3967,18 +3970,25 @@
       <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3987,13 +3997,6 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4006,13 +4009,13 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
@@ -4041,19 +4044,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -4071,10 +4074,10 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="100" t="s">
         <v>91</v>
       </c>
       <c r="C4" s="107" t="s">
@@ -4087,19 +4090,19 @@
       </c>
       <c r="G4" s="111"/>
       <c r="H4" s="112"/>
-      <c r="I4" s="104" t="s">
+      <c r="I4" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="104" t="s">
+      <c r="J4" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="104" t="s">
+      <c r="K4" s="102" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="37" t="s">
         <v>94</v>
       </c>
@@ -4118,11 +4121,11 @@
       <c r="H5" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-    </row>
-    <row r="6" spans="1:11" ht="20.25" customHeight="1">
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+    </row>
+    <row r="6" spans="1:11" ht="33" customHeight="1">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -4187,7 +4190,7 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.35" header="0.31496062992125984" footer="0.21"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FE72FC63-6ADB-1E40-8FD9-4E21110F8E15}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A47CBDFB-C015-EA47-945F-B76E88C8CD59}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1944,6 +1944,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1956,20 +1971,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1980,8 +1983,140 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1995,140 +2130,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2140,12 +2146,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2556,40 +2556,40 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="42"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="42"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A4" s="6" t="s">
@@ -2607,14 +2607,14 @@
       <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -2624,12 +2624,12 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A6" s="6" t="s">
@@ -2639,40 +2639,40 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="46" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44" t="s">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2685,12 +2685,12 @@
       <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -2702,16 +2702,16 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="44"/>
+      <c r="K9" s="40"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -2723,10 +2723,10 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="44"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A11" s="6" t="s">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="44"/>
+      <c r="K11" s="40"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A12" s="6" t="s">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="44"/>
+      <c r="K12" s="40"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="6" t="s">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="44"/>
+      <c r="K13" s="40"/>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="44"/>
+      <c r="K14" s="40"/>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A15" s="9" t="s">
@@ -2806,16 +2806,16 @@
       <c r="E15" s="7"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="49"/>
+      <c r="K15" s="50"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A16" s="6" t="s">
@@ -2827,10 +2827,10 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="44"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A17" s="6" t="s">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="44"/>
+      <c r="K17" s="40"/>
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A18" s="6" t="s">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="44"/>
+      <c r="K18" s="40"/>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A19" s="6" t="s">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="44"/>
+      <c r="K19" s="40"/>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A20" s="6" t="s">
@@ -2898,35 +2898,29 @@
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="44"/>
+      <c r="K20" s="40"/>
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="36" customHeight="1">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
     </row>
     <row r="22" spans="1:11" ht="17.25" customHeight="1">
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I15:I16"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="J3:K3"/>
@@ -2943,6 +2937,12 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I15:I16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2990,102 +2990,102 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="93" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="93"/>
-      <c r="G3" s="95" t="s">
+      <c r="F3" s="51"/>
+      <c r="G3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="96"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="70" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="67" t="s">
+      <c r="G4" s="72"/>
+      <c r="H4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="74" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="80" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
-      <c r="A6" s="86"/>
-      <c r="B6" s="77" t="s">
+      <c r="A6" s="87"/>
+      <c r="B6" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="82" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="83"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="92"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66" t="s">
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="58" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="60" t="s">
@@ -3098,7 +3098,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A8" s="56"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
@@ -3108,8 +3108,8 @@
       <c r="D8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>69</v>
       </c>
       <c r="I9" s="24"/>
-      <c r="J9" s="57"/>
+      <c r="J9" s="65"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="15"/>
@@ -3163,7 +3163,7 @@
         <v>68</v>
       </c>
       <c r="I10" s="24"/>
-      <c r="J10" s="58"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A11" s="15"/>
@@ -3181,7 +3181,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="58"/>
+      <c r="J11" s="66"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="15"/>
@@ -3199,7 +3199,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="58"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A13" s="16" t="s">
@@ -3221,21 +3221,21 @@
       <c r="G13" s="21"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="59"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66" t="s">
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="58" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="60" t="s">
@@ -3248,7 +3248,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A15" s="56"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="12" t="s">
         <v>41</v>
       </c>
@@ -3258,8 +3258,8 @@
       <c r="D15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="14" t="s">
         <v>46</v>
       </c>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="57"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="15"/>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="58"/>
+      <c r="J17" s="66"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="15"/>
@@ -3309,7 +3309,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="58"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="15"/>
@@ -3321,7 +3321,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="58"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="16" t="s">
@@ -3337,21 +3337,21 @@
       <c r="G20" s="21"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="59"/>
+      <c r="J20" s="67"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66" t="s">
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="65" t="s">
+      <c r="F21" s="58" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="60" t="s">
@@ -3364,7 +3364,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A22" s="56"/>
+      <c r="A22" s="89"/>
       <c r="B22" s="12" t="s">
         <v>41</v>
       </c>
@@ -3374,8 +3374,8 @@
       <c r="D22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="14" t="s">
         <v>46</v>
       </c>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="57"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A24" s="15"/>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="58"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="15"/>
@@ -3425,7 +3425,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="58"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="15"/>
@@ -3437,7 +3437,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="58"/>
+      <c r="J26" s="66"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A27" s="16" t="s">
@@ -3453,21 +3453,21 @@
       <c r="G27" s="21"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="59"/>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="66" t="s">
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="65" t="s">
+      <c r="F28" s="58" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="60" t="s">
@@ -3480,7 +3480,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A29" s="56"/>
+      <c r="A29" s="89"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
       </c>
@@ -3490,8 +3490,8 @@
       <c r="D29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
       <c r="G29" s="14" t="s">
         <v>46</v>
       </c>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="57"/>
+      <c r="J30" s="65"/>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="15"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="58"/>
+      <c r="J31" s="66"/>
     </row>
     <row r="32" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="15"/>
@@ -3541,7 +3541,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
-      <c r="J32" s="58"/>
+      <c r="J32" s="66"/>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="15"/>
@@ -3553,7 +3553,7 @@
       <c r="G33" s="21"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
-      <c r="J33" s="58"/>
+      <c r="J33" s="66"/>
     </row>
     <row r="34" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A34" s="16" t="s">
@@ -3569,43 +3569,71 @@
       <c r="G34" s="21"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="59"/>
+      <c r="J34" s="67"/>
     </row>
     <row r="35" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="97" t="s">
+      <c r="B35" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="99"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="57"/>
       <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="54"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="99"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1">
       <c r="J37" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="G3:J3"/>
@@ -3622,34 +3650,6 @@
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="J23:J27"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="J16:J20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3689,15 +3689,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="57.75" customHeight="1">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -3711,81 +3711,81 @@
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="100"/>
+      <c r="C4" s="102"/>
       <c r="D4" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100" t="s">
+      <c r="A5" s="102"/>
+      <c r="B5" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="100"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A6" s="100"/>
-      <c r="B6" s="100" t="s">
+      <c r="A6" s="102"/>
+      <c r="B6" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="100"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="102" t="s">
+      <c r="D7" s="102"/>
+      <c r="E7" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="102" t="s">
+      <c r="F7" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="102" t="s">
+      <c r="G7" s="104" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="37" t="s">
         <v>87</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1">
       <c r="A9" s="36"/>
@@ -3970,25 +3970,18 @@
       <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3997,6 +3990,13 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4015,12 +4015,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
     <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.6640625" customWidth="1"/>
@@ -4044,19 +4044,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -4074,10 +4074,10 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="102" t="s">
         <v>91</v>
       </c>
       <c r="C4" s="107" t="s">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="G4" s="111"/>
       <c r="H4" s="112"/>
-      <c r="I4" s="102" t="s">
+      <c r="I4" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="102" t="s">
+      <c r="J4" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="102" t="s">
+      <c r="K4" s="104" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="37" t="s">
         <v>94</v>
       </c>
@@ -4121,9 +4121,9 @@
       <c r="H5" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
     </row>
     <row r="6" spans="1:11" ht="33" customHeight="1">
       <c r="A6" s="35"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A47CBDFB-C015-EA47-945F-B76E88C8CD59}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4F7911B7-CE7A-EC4A-B461-4678416A4870}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1944,37 +1944,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1983,6 +1980,135 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2004,148 +2130,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2556,40 +2556,40 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="41"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A4" s="6" t="s">
@@ -2607,14 +2607,14 @@
       <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -2624,12 +2624,12 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A6" s="6" t="s">
@@ -2639,40 +2639,40 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="39" t="s">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40" t="s">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2685,12 +2685,12 @@
       <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -2702,16 +2702,16 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="42" t="s">
+      <c r="J9" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="40"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -2723,10 +2723,10 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="44"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A11" s="6" t="s">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="40"/>
+      <c r="K11" s="44"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A12" s="6" t="s">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="40"/>
+      <c r="K12" s="44"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="6" t="s">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="40"/>
+      <c r="K13" s="44"/>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="40"/>
+      <c r="K14" s="44"/>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A15" s="9" t="s">
@@ -2806,16 +2806,16 @@
       <c r="E15" s="7"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="42" t="s">
+      <c r="J15" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="50"/>
+      <c r="K15" s="49"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A16" s="6" t="s">
@@ -2827,10 +2827,10 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="44"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A17" s="6" t="s">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="40"/>
+      <c r="K17" s="44"/>
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A18" s="6" t="s">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="40"/>
+      <c r="K18" s="44"/>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A19" s="6" t="s">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="40"/>
+      <c r="K19" s="44"/>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A20" s="6" t="s">
@@ -2898,29 +2898,35 @@
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="40"/>
+      <c r="K20" s="44"/>
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="36" customHeight="1">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="1:11" ht="17.25" customHeight="1">
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I15:I16"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="J3:K3"/>
@@ -2937,12 +2943,6 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I15:I16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2990,102 +2990,102 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="51" t="s">
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="53" t="s">
+      <c r="F3" s="93"/>
+      <c r="G3" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="96"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="71" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="68" t="s">
+      <c r="G4" s="71"/>
+      <c r="H4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="86"/>
-      <c r="B5" s="75" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="81" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="82"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="92"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="89"/>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="78" t="s">
+      <c r="A6" s="86"/>
+      <c r="B6" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="83" t="s">
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="84"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="95"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="92"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="65" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="60" t="s">
@@ -3098,7 +3098,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A8" s="89"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
@@ -3108,8 +3108,8 @@
       <c r="D8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>69</v>
       </c>
       <c r="I9" s="24"/>
-      <c r="J9" s="65"/>
+      <c r="J9" s="57"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="15"/>
@@ -3163,7 +3163,7 @@
         <v>68</v>
       </c>
       <c r="I10" s="24"/>
-      <c r="J10" s="66"/>
+      <c r="J10" s="58"/>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A11" s="15"/>
@@ -3181,7 +3181,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="66"/>
+      <c r="J11" s="58"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="15"/>
@@ -3199,7 +3199,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="66"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A13" s="16" t="s">
@@ -3221,21 +3221,21 @@
       <c r="G13" s="21"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="67"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59" t="s">
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="65" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="60" t="s">
@@ -3248,7 +3248,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A15" s="89"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="12" t="s">
         <v>41</v>
       </c>
@@ -3258,8 +3258,8 @@
       <c r="D15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
       <c r="G15" s="14" t="s">
         <v>46</v>
       </c>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="65"/>
+      <c r="J16" s="57"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="15"/>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="66"/>
+      <c r="J17" s="58"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="15"/>
@@ -3309,7 +3309,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="66"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="15"/>
@@ -3321,7 +3321,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="66"/>
+      <c r="J19" s="58"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="16" t="s">
@@ -3337,21 +3337,21 @@
       <c r="G20" s="21"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="67"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="59" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="65" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="60" t="s">
@@ -3364,7 +3364,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A22" s="89"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="12" t="s">
         <v>41</v>
       </c>
@@ -3374,8 +3374,8 @@
       <c r="D22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="14" t="s">
         <v>46</v>
       </c>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="65"/>
+      <c r="J23" s="57"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A24" s="15"/>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="66"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="15"/>
@@ -3425,7 +3425,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="66"/>
+      <c r="J25" s="58"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="15"/>
@@ -3437,7 +3437,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="66"/>
+      <c r="J26" s="58"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A27" s="16" t="s">
@@ -3453,21 +3453,21 @@
       <c r="G27" s="21"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="67"/>
+      <c r="J27" s="59"/>
     </row>
     <row r="28" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59" t="s">
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="58" t="s">
+      <c r="F28" s="65" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="60" t="s">
@@ -3480,7 +3480,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A29" s="89"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
       </c>
@@ -3490,8 +3490,8 @@
       <c r="D29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
       <c r="G29" s="14" t="s">
         <v>46</v>
       </c>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="65"/>
+      <c r="J30" s="57"/>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="15"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="66"/>
+      <c r="J31" s="58"/>
     </row>
     <row r="32" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="15"/>
@@ -3541,7 +3541,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
-      <c r="J32" s="66"/>
+      <c r="J32" s="58"/>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="15"/>
@@ -3553,7 +3553,7 @@
       <c r="G33" s="21"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
-      <c r="J33" s="66"/>
+      <c r="J33" s="58"/>
     </row>
     <row r="34" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A34" s="16" t="s">
@@ -3569,55 +3569,59 @@
       <c r="G34" s="21"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="67"/>
+      <c r="J34" s="59"/>
     </row>
     <row r="35" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="57"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="99"/>
       <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A36" s="96" t="s">
+      <c r="A36" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="98"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="99"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="54"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1">
       <c r="J37" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="H4:J4"/>
@@ -3634,22 +3638,18 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="J16:J20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3689,15 +3689,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="57.75" customHeight="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -3711,81 +3711,81 @@
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="102"/>
+      <c r="C4" s="100"/>
       <c r="D4" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102" t="s">
+      <c r="A5" s="100"/>
+      <c r="B5" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="102"/>
+      <c r="C5" s="100"/>
       <c r="D5" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A6" s="102"/>
-      <c r="B6" s="102" t="s">
+      <c r="A6" s="100"/>
+      <c r="B6" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="102"/>
+      <c r="C6" s="100"/>
       <c r="D6" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="104" t="s">
+      <c r="D7" s="100"/>
+      <c r="E7" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="104" t="s">
+      <c r="G7" s="102" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="37" t="s">
         <v>87</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1">
       <c r="A9" s="36"/>
@@ -3970,18 +3970,25 @@
       <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3990,13 +3997,6 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4015,13 +4015,13 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.6640625" customWidth="1"/>
   </cols>
@@ -4044,19 +4044,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -4074,10 +4074,10 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="100" t="s">
         <v>91</v>
       </c>
       <c r="C4" s="107" t="s">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="G4" s="111"/>
       <c r="H4" s="112"/>
-      <c r="I4" s="104" t="s">
+      <c r="I4" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="104" t="s">
+      <c r="J4" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="104" t="s">
+      <c r="K4" s="102" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="37" t="s">
         <v>94</v>
       </c>
@@ -4121,11 +4121,11 @@
       <c r="H5" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-    </row>
-    <row r="6" spans="1:11" ht="33" customHeight="1">
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+    </row>
+    <row r="6" spans="1:11" ht="42" customHeight="1">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4F7911B7-CE7A-EC4A-B461-4678416A4870}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E7A9DAC3-5B6B-254A-84A1-DCEE21F4202A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1944,6 +1944,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1956,20 +1971,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1980,8 +1983,140 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1995,140 +2130,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2140,12 +2146,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2556,40 +2556,40 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="42"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="42"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A4" s="6" t="s">
@@ -2607,14 +2607,14 @@
       <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -2624,12 +2624,12 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A6" s="6" t="s">
@@ -2639,40 +2639,40 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="46" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44" t="s">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2685,12 +2685,12 @@
       <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -2702,16 +2702,16 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="44"/>
+      <c r="K9" s="40"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -2723,10 +2723,10 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="44"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A11" s="6" t="s">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="44"/>
+      <c r="K11" s="40"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A12" s="6" t="s">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="44"/>
+      <c r="K12" s="40"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="6" t="s">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="44"/>
+      <c r="K13" s="40"/>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="44"/>
+      <c r="K14" s="40"/>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A15" s="9" t="s">
@@ -2806,16 +2806,16 @@
       <c r="E15" s="7"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="49"/>
+      <c r="K15" s="50"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A16" s="6" t="s">
@@ -2827,10 +2827,10 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="44"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A17" s="6" t="s">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="44"/>
+      <c r="K17" s="40"/>
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A18" s="6" t="s">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="44"/>
+      <c r="K18" s="40"/>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A19" s="6" t="s">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="44"/>
+      <c r="K19" s="40"/>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A20" s="6" t="s">
@@ -2898,35 +2898,29 @@
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="44"/>
+      <c r="K20" s="40"/>
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="36" customHeight="1">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
     </row>
     <row r="22" spans="1:11" ht="17.25" customHeight="1">
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I15:I16"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="J3:K3"/>
@@ -2943,6 +2937,12 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I15:I16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2990,102 +2990,102 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="93" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="93"/>
-      <c r="G3" s="95" t="s">
+      <c r="F3" s="51"/>
+      <c r="G3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="96"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="70" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="67" t="s">
+      <c r="G4" s="72"/>
+      <c r="H4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="74" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="80" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
-      <c r="A6" s="86"/>
-      <c r="B6" s="77" t="s">
+      <c r="A6" s="87"/>
+      <c r="B6" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="82" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="83"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="92"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66" t="s">
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="58" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="60" t="s">
@@ -3098,7 +3098,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A8" s="56"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
@@ -3108,8 +3108,8 @@
       <c r="D8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>69</v>
       </c>
       <c r="I9" s="24"/>
-      <c r="J9" s="57"/>
+      <c r="J9" s="65"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="15"/>
@@ -3163,7 +3163,7 @@
         <v>68</v>
       </c>
       <c r="I10" s="24"/>
-      <c r="J10" s="58"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A11" s="15"/>
@@ -3181,7 +3181,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="58"/>
+      <c r="J11" s="66"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="15"/>
@@ -3199,7 +3199,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="58"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A13" s="16" t="s">
@@ -3221,21 +3221,21 @@
       <c r="G13" s="21"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="59"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66" t="s">
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="58" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="60" t="s">
@@ -3248,7 +3248,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A15" s="56"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="12" t="s">
         <v>41</v>
       </c>
@@ -3258,8 +3258,8 @@
       <c r="D15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="14" t="s">
         <v>46</v>
       </c>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="57"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="15"/>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="58"/>
+      <c r="J17" s="66"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="15"/>
@@ -3309,7 +3309,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="58"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="15"/>
@@ -3321,7 +3321,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="58"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="16" t="s">
@@ -3337,21 +3337,21 @@
       <c r="G20" s="21"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="59"/>
+      <c r="J20" s="67"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66" t="s">
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="65" t="s">
+      <c r="F21" s="58" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="60" t="s">
@@ -3364,7 +3364,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A22" s="56"/>
+      <c r="A22" s="89"/>
       <c r="B22" s="12" t="s">
         <v>41</v>
       </c>
@@ -3374,8 +3374,8 @@
       <c r="D22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="14" t="s">
         <v>46</v>
       </c>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="57"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A24" s="15"/>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="58"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="15"/>
@@ -3425,7 +3425,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="58"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="15"/>
@@ -3437,7 +3437,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="58"/>
+      <c r="J26" s="66"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A27" s="16" t="s">
@@ -3453,21 +3453,21 @@
       <c r="G27" s="21"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="59"/>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="66" t="s">
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="65" t="s">
+      <c r="F28" s="58" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="60" t="s">
@@ -3480,7 +3480,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A29" s="56"/>
+      <c r="A29" s="89"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
       </c>
@@ -3490,8 +3490,8 @@
       <c r="D29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
       <c r="G29" s="14" t="s">
         <v>46</v>
       </c>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="57"/>
+      <c r="J30" s="65"/>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="15"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="58"/>
+      <c r="J31" s="66"/>
     </row>
     <row r="32" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="15"/>
@@ -3541,7 +3541,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
-      <c r="J32" s="58"/>
+      <c r="J32" s="66"/>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="15"/>
@@ -3553,7 +3553,7 @@
       <c r="G33" s="21"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
-      <c r="J33" s="58"/>
+      <c r="J33" s="66"/>
     </row>
     <row r="34" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A34" s="16" t="s">
@@ -3569,43 +3569,71 @@
       <c r="G34" s="21"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="59"/>
+      <c r="J34" s="67"/>
     </row>
     <row r="35" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="97" t="s">
+      <c r="B35" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="99"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="57"/>
       <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="54"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="99"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1">
       <c r="J37" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="G3:J3"/>
@@ -3622,34 +3650,6 @@
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="J23:J27"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="J16:J20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3689,15 +3689,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="57.75" customHeight="1">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -3711,81 +3711,81 @@
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="100"/>
+      <c r="C4" s="102"/>
       <c r="D4" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100" t="s">
+      <c r="A5" s="102"/>
+      <c r="B5" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="100"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A6" s="100"/>
-      <c r="B6" s="100" t="s">
+      <c r="A6" s="102"/>
+      <c r="B6" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="100"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="102" t="s">
+      <c r="D7" s="102"/>
+      <c r="E7" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="102" t="s">
+      <c r="F7" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="102" t="s">
+      <c r="G7" s="104" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="37" t="s">
         <v>87</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1">
       <c r="A9" s="36"/>
@@ -3970,25 +3970,18 @@
       <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3997,6 +3990,13 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4044,19 +4044,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -4074,10 +4074,10 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="102" t="s">
         <v>91</v>
       </c>
       <c r="C4" s="107" t="s">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="G4" s="111"/>
       <c r="H4" s="112"/>
-      <c r="I4" s="102" t="s">
+      <c r="I4" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="102" t="s">
+      <c r="J4" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="102" t="s">
+      <c r="K4" s="104" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="37" t="s">
         <v>94</v>
       </c>
@@ -4121,11 +4121,11 @@
       <c r="H5" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-    </row>
-    <row r="6" spans="1:11" ht="42" customHeight="1">
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+    </row>
+    <row r="6" spans="1:11" ht="54" customHeight="1">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E7A9DAC3-5B6B-254A-84A1-DCEE21F4202A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8732346C-3687-6046-9961-276A328CC367}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1944,37 +1944,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1983,6 +1980,135 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2004,148 +2130,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2556,40 +2556,40 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="41"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A4" s="6" t="s">
@@ -2607,14 +2607,14 @@
       <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -2624,12 +2624,12 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A6" s="6" t="s">
@@ -2639,40 +2639,40 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="39" t="s">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40" t="s">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2685,12 +2685,12 @@
       <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -2702,16 +2702,16 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="42" t="s">
+      <c r="J9" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="40"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -2723,10 +2723,10 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="44"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A11" s="6" t="s">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="40"/>
+      <c r="K11" s="44"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A12" s="6" t="s">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="40"/>
+      <c r="K12" s="44"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="6" t="s">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="40"/>
+      <c r="K13" s="44"/>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="40"/>
+      <c r="K14" s="44"/>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A15" s="9" t="s">
@@ -2806,16 +2806,16 @@
       <c r="E15" s="7"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="42" t="s">
+      <c r="J15" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="50"/>
+      <c r="K15" s="49"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A16" s="6" t="s">
@@ -2827,10 +2827,10 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="44"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A17" s="6" t="s">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="40"/>
+      <c r="K17" s="44"/>
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A18" s="6" t="s">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="40"/>
+      <c r="K18" s="44"/>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A19" s="6" t="s">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="40"/>
+      <c r="K19" s="44"/>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A20" s="6" t="s">
@@ -2898,29 +2898,35 @@
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="40"/>
+      <c r="K20" s="44"/>
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="36" customHeight="1">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="1:11" ht="17.25" customHeight="1">
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I15:I16"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="J3:K3"/>
@@ -2937,12 +2943,6 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I15:I16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2990,102 +2990,102 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="51" t="s">
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="53" t="s">
+      <c r="F3" s="93"/>
+      <c r="G3" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="96"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="71" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="68" t="s">
+      <c r="G4" s="71"/>
+      <c r="H4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="86"/>
-      <c r="B5" s="75" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="81" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="82"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="92"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="89"/>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="78" t="s">
+      <c r="A6" s="86"/>
+      <c r="B6" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="83" t="s">
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="84"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="95"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="92"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="65" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="60" t="s">
@@ -3098,7 +3098,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A8" s="89"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
@@ -3108,8 +3108,8 @@
       <c r="D8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>69</v>
       </c>
       <c r="I9" s="24"/>
-      <c r="J9" s="65"/>
+      <c r="J9" s="57"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="15"/>
@@ -3163,7 +3163,7 @@
         <v>68</v>
       </c>
       <c r="I10" s="24"/>
-      <c r="J10" s="66"/>
+      <c r="J10" s="58"/>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A11" s="15"/>
@@ -3181,7 +3181,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="66"/>
+      <c r="J11" s="58"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="15"/>
@@ -3199,7 +3199,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="66"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A13" s="16" t="s">
@@ -3221,21 +3221,21 @@
       <c r="G13" s="21"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="67"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59" t="s">
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="65" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="60" t="s">
@@ -3248,7 +3248,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A15" s="89"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="12" t="s">
         <v>41</v>
       </c>
@@ -3258,8 +3258,8 @@
       <c r="D15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
       <c r="G15" s="14" t="s">
         <v>46</v>
       </c>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="65"/>
+      <c r="J16" s="57"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="15"/>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="66"/>
+      <c r="J17" s="58"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="15"/>
@@ -3309,7 +3309,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="66"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="15"/>
@@ -3321,7 +3321,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="66"/>
+      <c r="J19" s="58"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="16" t="s">
@@ -3337,21 +3337,21 @@
       <c r="G20" s="21"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="67"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="59" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="65" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="60" t="s">
@@ -3364,7 +3364,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A22" s="89"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="12" t="s">
         <v>41</v>
       </c>
@@ -3374,8 +3374,8 @@
       <c r="D22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="14" t="s">
         <v>46</v>
       </c>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="65"/>
+      <c r="J23" s="57"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A24" s="15"/>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="66"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="15"/>
@@ -3425,7 +3425,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="66"/>
+      <c r="J25" s="58"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="15"/>
@@ -3437,7 +3437,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="66"/>
+      <c r="J26" s="58"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A27" s="16" t="s">
@@ -3453,21 +3453,21 @@
       <c r="G27" s="21"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="67"/>
+      <c r="J27" s="59"/>
     </row>
     <row r="28" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59" t="s">
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="58" t="s">
+      <c r="F28" s="65" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="60" t="s">
@@ -3480,7 +3480,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A29" s="89"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
       </c>
@@ -3490,8 +3490,8 @@
       <c r="D29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
       <c r="G29" s="14" t="s">
         <v>46</v>
       </c>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="65"/>
+      <c r="J30" s="57"/>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="15"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="66"/>
+      <c r="J31" s="58"/>
     </row>
     <row r="32" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="15"/>
@@ -3541,7 +3541,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
-      <c r="J32" s="66"/>
+      <c r="J32" s="58"/>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="15"/>
@@ -3553,7 +3553,7 @@
       <c r="G33" s="21"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
-      <c r="J33" s="66"/>
+      <c r="J33" s="58"/>
     </row>
     <row r="34" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A34" s="16" t="s">
@@ -3569,55 +3569,59 @@
       <c r="G34" s="21"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="67"/>
+      <c r="J34" s="59"/>
     </row>
     <row r="35" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="57"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="99"/>
       <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A36" s="96" t="s">
+      <c r="A36" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="98"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="99"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="54"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1">
       <c r="J37" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="H4:J4"/>
@@ -3634,22 +3638,18 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="J16:J20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3689,15 +3689,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="57.75" customHeight="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -3711,81 +3711,81 @@
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="102"/>
+      <c r="C4" s="100"/>
       <c r="D4" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102" t="s">
+      <c r="A5" s="100"/>
+      <c r="B5" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="102"/>
+      <c r="C5" s="100"/>
       <c r="D5" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A6" s="102"/>
-      <c r="B6" s="102" t="s">
+      <c r="A6" s="100"/>
+      <c r="B6" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="102"/>
+      <c r="C6" s="100"/>
       <c r="D6" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="104" t="s">
+      <c r="D7" s="100"/>
+      <c r="E7" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="104" t="s">
+      <c r="G7" s="102" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="37" t="s">
         <v>87</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1">
       <c r="A9" s="36"/>
@@ -3970,18 +3970,25 @@
       <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3990,13 +3997,6 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4009,7 +4009,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4044,19 +4044,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -4074,10 +4074,10 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="100" t="s">
         <v>91</v>
       </c>
       <c r="C4" s="107" t="s">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="G4" s="111"/>
       <c r="H4" s="112"/>
-      <c r="I4" s="104" t="s">
+      <c r="I4" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="104" t="s">
+      <c r="J4" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="104" t="s">
+      <c r="K4" s="102" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="37" t="s">
         <v>94</v>
       </c>
@@ -4121,15 +4121,15 @@
       <c r="H5" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-    </row>
-    <row r="6" spans="1:11" ht="54" customHeight="1">
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+    </row>
+    <row r="6" spans="1:11" ht="64" customHeight="1">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="35"/>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8732346C-3687-6046-9961-276A328CC367}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3B017B36-9D20-6D4B-8E48-2BE73B1DED58}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="100">
   <si>
     <t xml:space="preserve">颇尔奥星包装科技（北京）有限责任公司                                                                                            </t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1184,14 +1184,6 @@
     <t>吹膜供料记录
 Feeding record of extrusion</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>-----</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>外中内层（A+B1+C）</t>
@@ -1829,7 +1821,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1944,6 +1936,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1956,20 +1966,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1980,8 +1978,140 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1995,140 +2125,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2142,12 +2143,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2168,18 +2163,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2556,19 +2539,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A3" s="42" t="s">
@@ -2586,7 +2569,7 @@
       </c>
       <c r="H3" s="42"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="47" t="s">
         <v>32</v>
       </c>
       <c r="K3" s="42"/>
@@ -2607,14 +2590,14 @@
       <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -2624,12 +2607,12 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A6" s="6" t="s">
@@ -2639,40 +2622,40 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="46" t="s">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44" t="s">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2685,12 +2668,12 @@
       <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -2702,16 +2685,16 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="44"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -2723,10 +2706,10 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="44"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A11" s="6" t="s">
@@ -2743,7 +2726,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="44"/>
+      <c r="K11" s="41"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A12" s="6" t="s">
@@ -2760,7 +2743,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="44"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="6" t="s">
@@ -2777,7 +2760,7 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="44"/>
+      <c r="K13" s="41"/>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -2794,7 +2777,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="44"/>
+      <c r="K14" s="41"/>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A15" s="9" t="s">
@@ -2806,16 +2789,16 @@
       <c r="E15" s="7"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="49"/>
+      <c r="K15" s="51"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A16" s="6" t="s">
@@ -2827,10 +2810,10 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="44"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A17" s="6" t="s">
@@ -2847,7 +2830,7 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="44"/>
+      <c r="K17" s="41"/>
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A18" s="6" t="s">
@@ -2864,7 +2847,7 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="44"/>
+      <c r="K18" s="41"/>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A19" s="6" t="s">
@@ -2881,7 +2864,7 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="44"/>
+      <c r="K19" s="41"/>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A20" s="6" t="s">
@@ -2898,35 +2881,29 @@
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="44"/>
+      <c r="K20" s="41"/>
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="36" customHeight="1">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
     </row>
     <row r="22" spans="1:11" ht="17.25" customHeight="1">
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I15:I16"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="J3:K3"/>
@@ -2943,6 +2920,12 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I15:I16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2990,115 +2973,115 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="93" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="93"/>
-      <c r="G3" s="95" t="s">
+      <c r="F3" s="52"/>
+      <c r="G3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="96"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="67" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="71"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="74" t="s">
+      <c r="A5" s="87"/>
+      <c r="B5" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="80" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
-      <c r="A6" s="86"/>
-      <c r="B6" s="77" t="s">
+      <c r="A6" s="88"/>
+      <c r="B6" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="82" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="83"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="92"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="96"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66" t="s">
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A8" s="56"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
@@ -3108,8 +3091,8 @@
       <c r="D8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3119,7 +3102,7 @@
       <c r="I8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="64"/>
+      <c r="J8" s="65"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A9" s="15"/>
@@ -3141,7 +3124,7 @@
         <v>69</v>
       </c>
       <c r="I9" s="24"/>
-      <c r="J9" s="57"/>
+      <c r="J9" s="66"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="15"/>
@@ -3163,7 +3146,7 @@
         <v>68</v>
       </c>
       <c r="I10" s="24"/>
-      <c r="J10" s="58"/>
+      <c r="J10" s="67"/>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A11" s="15"/>
@@ -3181,7 +3164,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="58"/>
+      <c r="J11" s="67"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="15"/>
@@ -3199,7 +3182,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="58"/>
+      <c r="J12" s="67"/>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A13" s="16" t="s">
@@ -3221,34 +3204,34 @@
       <c r="G13" s="21"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="59"/>
+      <c r="J13" s="68"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66" t="s">
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="63" t="s">
+      <c r="H14" s="62"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="64" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A15" s="56"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="12" t="s">
         <v>41</v>
       </c>
@@ -3258,8 +3241,8 @@
       <c r="D15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="14" t="s">
         <v>46</v>
       </c>
@@ -3269,7 +3252,7 @@
       <c r="I15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="64"/>
+      <c r="J15" s="65"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="15"/>
@@ -3283,7 +3266,7 @@
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="57"/>
+      <c r="J16" s="66"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="15"/>
@@ -3297,7 +3280,7 @@
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="58"/>
+      <c r="J17" s="67"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="15"/>
@@ -3309,7 +3292,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="58"/>
+      <c r="J18" s="67"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="15"/>
@@ -3321,7 +3304,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="58"/>
+      <c r="J19" s="67"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="16" t="s">
@@ -3337,34 +3320,34 @@
       <c r="G20" s="21"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="59"/>
+      <c r="J20" s="68"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66" t="s">
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="65" t="s">
+      <c r="F21" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="60" t="s">
+      <c r="G21" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="63" t="s">
+      <c r="H21" s="62"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="64" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A22" s="56"/>
+      <c r="A22" s="90"/>
       <c r="B22" s="12" t="s">
         <v>41</v>
       </c>
@@ -3374,8 +3357,8 @@
       <c r="D22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="14" t="s">
         <v>46</v>
       </c>
@@ -3385,7 +3368,7 @@
       <c r="I22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="64"/>
+      <c r="J22" s="65"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A23" s="15"/>
@@ -3399,7 +3382,7 @@
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="57"/>
+      <c r="J23" s="66"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A24" s="15"/>
@@ -3413,7 +3396,7 @@
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="58"/>
+      <c r="J24" s="67"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="15"/>
@@ -3425,7 +3408,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="58"/>
+      <c r="J25" s="67"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="15"/>
@@ -3437,7 +3420,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="58"/>
+      <c r="J26" s="67"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A27" s="16" t="s">
@@ -3453,34 +3436,34 @@
       <c r="G27" s="21"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="59"/>
+      <c r="J27" s="68"/>
     </row>
     <row r="28" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="66" t="s">
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="65" t="s">
+      <c r="F28" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="60" t="s">
+      <c r="G28" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="61"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="63" t="s">
+      <c r="H28" s="62"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="64" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A29" s="56"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
       </c>
@@ -3490,8 +3473,8 @@
       <c r="D29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
       <c r="G29" s="14" t="s">
         <v>46</v>
       </c>
@@ -3501,7 +3484,7 @@
       <c r="I29" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="64"/>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="15"/>
@@ -3515,7 +3498,7 @@
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="57"/>
+      <c r="J30" s="66"/>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="15"/>
@@ -3529,7 +3512,7 @@
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="58"/>
+      <c r="J31" s="67"/>
     </row>
     <row r="32" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="15"/>
@@ -3541,7 +3524,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
-      <c r="J32" s="58"/>
+      <c r="J32" s="67"/>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="15"/>
@@ -3553,7 +3536,7 @@
       <c r="G33" s="21"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
-      <c r="J33" s="58"/>
+      <c r="J33" s="67"/>
     </row>
     <row r="34" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A34" s="16" t="s">
@@ -3569,43 +3552,71 @@
       <c r="G34" s="21"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="59"/>
+      <c r="J34" s="68"/>
     </row>
     <row r="35" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="97" t="s">
+      <c r="B35" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="99"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="58"/>
       <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="54"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="100"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1">
       <c r="J37" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="G3:J3"/>
@@ -3622,34 +3633,6 @@
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="J23:J27"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="J16:J20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3689,15 +3672,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="57.75" customHeight="1">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -3711,81 +3694,81 @@
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="100"/>
+      <c r="C4" s="103"/>
       <c r="D4" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100" t="s">
+      <c r="A5" s="103"/>
+      <c r="B5" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="100"/>
+      <c r="C5" s="103"/>
       <c r="D5" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A6" s="100"/>
-      <c r="B6" s="100" t="s">
+      <c r="A6" s="103"/>
+      <c r="B6" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="100"/>
+      <c r="C6" s="103"/>
       <c r="D6" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="102" t="s">
+      <c r="D7" s="103"/>
+      <c r="E7" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="102" t="s">
+      <c r="F7" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="102" t="s">
+      <c r="G7" s="105" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="37" t="s">
         <v>87</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1">
       <c r="A9" s="36"/>
@@ -3970,25 +3953,18 @@
       <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3997,6 +3973,13 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4009,7 +3992,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4044,19 +4027,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -4074,35 +4057,35 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="107" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="108"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="110" t="s">
+      <c r="C4" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="109"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="111"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="102" t="s">
+      <c r="G4" s="112"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="102" t="s">
+      <c r="J4" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="102" t="s">
+      <c r="K4" s="105" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="37" t="s">
         <v>94</v>
       </c>
@@ -4121,11 +4104,11 @@
       <c r="H5" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-    </row>
-    <row r="6" spans="1:11" ht="64" customHeight="1">
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+    </row>
+    <row r="6" spans="1:11" ht="39" customHeight="1">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -4140,48 +4123,42 @@
       <c r="J6" s="35"/>
       <c r="K6" s="35"/>
     </row>
-    <row r="7" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A7" s="113" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="116" t="s">
-        <v>100</v>
-      </c>
-      <c r="J7" s="115"/>
-      <c r="K7" s="114"/>
+    <row r="7" spans="1:11" ht="39" customHeight="1">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
     </row>
     <row r="8" spans="1:11" ht="42" customHeight="1">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="9">
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A8:K8"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="I4:I5"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3B017B36-9D20-6D4B-8E48-2BE73B1DED58}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{25B547E0-E6EB-124E-9144-83947DB270AE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="102">
   <si>
     <t xml:space="preserve">颇尔奥星包装科技（北京）有限责任公司                                                                                            </t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1184,6 +1184,14 @@
     <t>吹膜供料记录
 Feeding record of extrusion</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>-----</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>外中内层（A+B1+C）</t>
@@ -1821,7 +1829,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1936,9 +1944,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2163,6 +2168,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2539,40 +2556,40 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="42"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="42"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A4" s="6" t="s">
@@ -2590,14 +2607,14 @@
       <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -2607,12 +2624,12 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A6" s="6" t="s">
@@ -2622,40 +2639,40 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="40" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41" t="s">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2668,12 +2685,12 @@
       <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -2685,16 +2702,16 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="41"/>
+      <c r="K9" s="40"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -2706,10 +2723,10 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A11" s="6" t="s">
@@ -2726,7 +2743,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="41"/>
+      <c r="K11" s="40"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A12" s="6" t="s">
@@ -2743,7 +2760,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="41"/>
+      <c r="K12" s="40"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="6" t="s">
@@ -2760,7 +2777,7 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="41"/>
+      <c r="K13" s="40"/>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -2777,7 +2794,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="41"/>
+      <c r="K14" s="40"/>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A15" s="9" t="s">
@@ -2789,16 +2806,16 @@
       <c r="E15" s="7"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="51"/>
+      <c r="K15" s="50"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A16" s="6" t="s">
@@ -2810,10 +2827,10 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A17" s="6" t="s">
@@ -2830,7 +2847,7 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="41"/>
+      <c r="K17" s="40"/>
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A18" s="6" t="s">
@@ -2847,7 +2864,7 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="41"/>
+      <c r="K18" s="40"/>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A19" s="6" t="s">
@@ -2864,7 +2881,7 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="41"/>
+      <c r="K19" s="40"/>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A20" s="6" t="s">
@@ -2881,26 +2898,26 @@
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="41"/>
+      <c r="K20" s="40"/>
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="36" customHeight="1">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
     </row>
     <row r="22" spans="1:11" ht="17.25" customHeight="1">
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -2973,115 +2990,115 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="52" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="54" t="s">
+      <c r="F3" s="51"/>
+      <c r="G3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="72" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="69" t="s">
+      <c r="G4" s="72"/>
+      <c r="H4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="87"/>
-      <c r="B5" s="76" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="82" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="83"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="93"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
-      <c r="A6" s="88"/>
-      <c r="B6" s="79" t="s">
+      <c r="A6" s="87"/>
+      <c r="B6" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="84" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="85"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="96"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60" t="s">
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64" t="s">
+      <c r="H7" s="61"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A8" s="90"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
@@ -3091,8 +3108,8 @@
       <c r="D8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3102,7 +3119,7 @@
       <c r="I8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="65"/>
+      <c r="J8" s="64"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A9" s="15"/>
@@ -3124,7 +3141,7 @@
         <v>69</v>
       </c>
       <c r="I9" s="24"/>
-      <c r="J9" s="66"/>
+      <c r="J9" s="65"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="15"/>
@@ -3146,7 +3163,7 @@
         <v>68</v>
       </c>
       <c r="I10" s="24"/>
-      <c r="J10" s="67"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A11" s="15"/>
@@ -3164,7 +3181,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="67"/>
+      <c r="J11" s="66"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="15"/>
@@ -3182,7 +3199,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="67"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A13" s="16" t="s">
@@ -3204,34 +3221,34 @@
       <c r="G13" s="21"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="68"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60" t="s">
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="61" t="s">
+      <c r="G14" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64" t="s">
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="63" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A15" s="90"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="12" t="s">
         <v>41</v>
       </c>
@@ -3241,8 +3258,8 @@
       <c r="D15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="14" t="s">
         <v>46</v>
       </c>
@@ -3252,7 +3269,7 @@
       <c r="I15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="65"/>
+      <c r="J15" s="64"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="15"/>
@@ -3266,7 +3283,7 @@
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="66"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="15"/>
@@ -3280,7 +3297,7 @@
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="67"/>
+      <c r="J17" s="66"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="15"/>
@@ -3292,7 +3309,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="67"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="15"/>
@@ -3304,7 +3321,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="67"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="16" t="s">
@@ -3320,34 +3337,34 @@
       <c r="G20" s="21"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="68"/>
+      <c r="J20" s="67"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="60" t="s">
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="61" t="s">
+      <c r="G21" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="62"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="64" t="s">
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="63" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A22" s="90"/>
+      <c r="A22" s="89"/>
       <c r="B22" s="12" t="s">
         <v>41</v>
       </c>
@@ -3357,8 +3374,8 @@
       <c r="D22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="14" t="s">
         <v>46</v>
       </c>
@@ -3368,7 +3385,7 @@
       <c r="I22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="65"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A23" s="15"/>
@@ -3382,7 +3399,7 @@
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="66"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A24" s="15"/>
@@ -3396,7 +3413,7 @@
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="67"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="15"/>
@@ -3408,7 +3425,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="67"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="15"/>
@@ -3420,7 +3437,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="67"/>
+      <c r="J26" s="66"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A27" s="16" t="s">
@@ -3436,34 +3453,34 @@
       <c r="G27" s="21"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="68"/>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A28" s="89" t="s">
+      <c r="A28" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="60" t="s">
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="59" t="s">
+      <c r="F28" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="61" t="s">
+      <c r="G28" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="62"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="64" t="s">
+      <c r="H28" s="61"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="63" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A29" s="90"/>
+      <c r="A29" s="89"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
       </c>
@@ -3473,8 +3490,8 @@
       <c r="D29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
       <c r="G29" s="14" t="s">
         <v>46</v>
       </c>
@@ -3484,7 +3501,7 @@
       <c r="I29" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="65"/>
+      <c r="J29" s="64"/>
     </row>
     <row r="30" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="15"/>
@@ -3498,7 +3515,7 @@
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="66"/>
+      <c r="J30" s="65"/>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="15"/>
@@ -3512,7 +3529,7 @@
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="67"/>
+      <c r="J31" s="66"/>
     </row>
     <row r="32" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="15"/>
@@ -3524,7 +3541,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
-      <c r="J32" s="67"/>
+      <c r="J32" s="66"/>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="15"/>
@@ -3536,7 +3553,7 @@
       <c r="G33" s="21"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
-      <c r="J33" s="67"/>
+      <c r="J33" s="66"/>
     </row>
     <row r="34" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A34" s="16" t="s">
@@ -3552,37 +3569,37 @@
       <c r="G34" s="21"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="68"/>
+      <c r="J34" s="67"/>
     </row>
     <row r="35" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="58"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="57"/>
       <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A36" s="97" t="s">
+      <c r="A36" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="100"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="99"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1">
       <c r="J37" s="19"/>
@@ -3672,15 +3689,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="57.75" customHeight="1">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -3694,81 +3711,81 @@
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="103"/>
+      <c r="C4" s="102"/>
       <c r="D4" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="103" t="s">
+      <c r="E4" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A5" s="103"/>
-      <c r="B5" s="103" t="s">
+      <c r="A5" s="102"/>
+      <c r="B5" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="103"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A6" s="103"/>
-      <c r="B6" s="103" t="s">
+      <c r="A6" s="102"/>
+      <c r="B6" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="103"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="103"/>
-      <c r="E7" s="105" t="s">
+      <c r="D7" s="102"/>
+      <c r="E7" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="104" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="103"/>
-      <c r="B8" s="103"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="37" t="s">
         <v>87</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1">
       <c r="A9" s="36"/>
@@ -3953,15 +3970,15 @@
       <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3992,7 +4009,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4027,19 +4044,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -4057,35 +4074,35 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="108" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="109"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111" t="s">
+      <c r="C4" s="107" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="108"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="112"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="105" t="s">
+      <c r="G4" s="111"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="105" t="s">
+      <c r="J4" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="104" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A5" s="103"/>
-      <c r="B5" s="103"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="37" t="s">
         <v>94</v>
       </c>
@@ -4104,11 +4121,11 @@
       <c r="H5" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-    </row>
-    <row r="6" spans="1:11" ht="39" customHeight="1">
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+    </row>
+    <row r="6" spans="1:11" ht="49" customHeight="1">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -4123,42 +4140,48 @@
       <c r="J6" s="35"/>
       <c r="K6" s="35"/>
     </row>
-    <row r="7" spans="1:11" ht="39" customHeight="1">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
+    <row r="7" spans="1:11" ht="22.5" customHeight="1">
+      <c r="A7" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="116" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="115"/>
+      <c r="K7" s="114"/>
     </row>
     <row r="8" spans="1:11" ht="42" customHeight="1">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A8:K8"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="I4:I5"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{25B547E0-E6EB-124E-9144-83947DB270AE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{77930A97-FFB1-444D-AB23-711C4070EE9E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="102">
   <si>
     <t xml:space="preserve">颇尔奥星包装科技（北京）有限责任公司                                                                                            </t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1944,37 +1944,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1983,6 +1980,135 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2004,148 +2130,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2556,40 +2556,40 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="41"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A4" s="6" t="s">
@@ -2607,14 +2607,14 @@
       <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -2624,12 +2624,12 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A6" s="6" t="s">
@@ -2639,40 +2639,40 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="39" t="s">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40" t="s">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2685,12 +2685,12 @@
       <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -2702,16 +2702,16 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="42" t="s">
+      <c r="J9" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="40"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -2723,10 +2723,10 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="44"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A11" s="6" t="s">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="40"/>
+      <c r="K11" s="44"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A12" s="6" t="s">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="40"/>
+      <c r="K12" s="44"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="6" t="s">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="40"/>
+      <c r="K13" s="44"/>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="40"/>
+      <c r="K14" s="44"/>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A15" s="9" t="s">
@@ -2806,16 +2806,16 @@
       <c r="E15" s="7"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="42" t="s">
+      <c r="J15" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="50"/>
+      <c r="K15" s="49"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A16" s="6" t="s">
@@ -2827,10 +2827,10 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="44"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A17" s="6" t="s">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="40"/>
+      <c r="K17" s="44"/>
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A18" s="6" t="s">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="40"/>
+      <c r="K18" s="44"/>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A19" s="6" t="s">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="40"/>
+      <c r="K19" s="44"/>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A20" s="6" t="s">
@@ -2898,29 +2898,35 @@
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="40"/>
+      <c r="K20" s="44"/>
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="36" customHeight="1">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="1:11" ht="17.25" customHeight="1">
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I15:I16"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="J3:K3"/>
@@ -2937,12 +2943,6 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I15:I16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2990,102 +2990,102 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="51" t="s">
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="53" t="s">
+      <c r="F3" s="93"/>
+      <c r="G3" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="96"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="71" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="68" t="s">
+      <c r="G4" s="71"/>
+      <c r="H4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="86"/>
-      <c r="B5" s="75" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="81" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="82"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="92"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="89"/>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="78" t="s">
+      <c r="A6" s="86"/>
+      <c r="B6" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="83" t="s">
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="84"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="95"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="92"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="65" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="60" t="s">
@@ -3098,7 +3098,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A8" s="89"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
@@ -3108,8 +3108,8 @@
       <c r="D8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>69</v>
       </c>
       <c r="I9" s="24"/>
-      <c r="J9" s="65"/>
+      <c r="J9" s="57"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="15"/>
@@ -3163,7 +3163,7 @@
         <v>68</v>
       </c>
       <c r="I10" s="24"/>
-      <c r="J10" s="66"/>
+      <c r="J10" s="58"/>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A11" s="15"/>
@@ -3181,7 +3181,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="66"/>
+      <c r="J11" s="58"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="15"/>
@@ -3199,7 +3199,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="66"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A13" s="16" t="s">
@@ -3221,21 +3221,21 @@
       <c r="G13" s="21"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="67"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59" t="s">
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="65" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="60" t="s">
@@ -3248,7 +3248,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A15" s="89"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="12" t="s">
         <v>41</v>
       </c>
@@ -3258,8 +3258,8 @@
       <c r="D15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
       <c r="G15" s="14" t="s">
         <v>46</v>
       </c>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="65"/>
+      <c r="J16" s="57"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="15"/>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="66"/>
+      <c r="J17" s="58"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="15"/>
@@ -3309,7 +3309,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="66"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="15"/>
@@ -3321,7 +3321,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="66"/>
+      <c r="J19" s="58"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="16" t="s">
@@ -3337,21 +3337,21 @@
       <c r="G20" s="21"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="67"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="59" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="65" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="60" t="s">
@@ -3364,7 +3364,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A22" s="89"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="12" t="s">
         <v>41</v>
       </c>
@@ -3374,8 +3374,8 @@
       <c r="D22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="14" t="s">
         <v>46</v>
       </c>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="65"/>
+      <c r="J23" s="57"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A24" s="15"/>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="66"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="15"/>
@@ -3425,7 +3425,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="66"/>
+      <c r="J25" s="58"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="15"/>
@@ -3437,7 +3437,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="66"/>
+      <c r="J26" s="58"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A27" s="16" t="s">
@@ -3453,21 +3453,21 @@
       <c r="G27" s="21"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="67"/>
+      <c r="J27" s="59"/>
     </row>
     <row r="28" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59" t="s">
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="58" t="s">
+      <c r="F28" s="65" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="60" t="s">
@@ -3480,7 +3480,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A29" s="89"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
       </c>
@@ -3490,8 +3490,8 @@
       <c r="D29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
       <c r="G29" s="14" t="s">
         <v>46</v>
       </c>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="65"/>
+      <c r="J30" s="57"/>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="15"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="66"/>
+      <c r="J31" s="58"/>
     </row>
     <row r="32" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="15"/>
@@ -3541,7 +3541,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
-      <c r="J32" s="66"/>
+      <c r="J32" s="58"/>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="15"/>
@@ -3553,7 +3553,7 @@
       <c r="G33" s="21"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
-      <c r="J33" s="66"/>
+      <c r="J33" s="58"/>
     </row>
     <row r="34" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A34" s="16" t="s">
@@ -3569,55 +3569,59 @@
       <c r="G34" s="21"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="67"/>
+      <c r="J34" s="59"/>
     </row>
     <row r="35" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="57"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="99"/>
       <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A36" s="96" t="s">
+      <c r="A36" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="98"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="99"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="54"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1">
       <c r="J37" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="H4:J4"/>
@@ -3634,22 +3638,18 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="J16:J20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3689,15 +3689,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="57.75" customHeight="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -3711,81 +3711,81 @@
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="102"/>
+      <c r="C4" s="100"/>
       <c r="D4" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102" t="s">
+      <c r="A5" s="100"/>
+      <c r="B5" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="102"/>
+      <c r="C5" s="100"/>
       <c r="D5" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A6" s="102"/>
-      <c r="B6" s="102" t="s">
+      <c r="A6" s="100"/>
+      <c r="B6" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="102"/>
+      <c r="C6" s="100"/>
       <c r="D6" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="104" t="s">
+      <c r="D7" s="100"/>
+      <c r="E7" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="104" t="s">
+      <c r="G7" s="102" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="37" t="s">
         <v>87</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1">
       <c r="A9" s="36"/>
@@ -3970,18 +3970,25 @@
       <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3990,13 +3997,6 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4009,20 +4009,19 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="6" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
     <col min="10" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4044,19 +4043,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -4074,10 +4073,10 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="100" t="s">
         <v>91</v>
       </c>
       <c r="C4" s="107" t="s">
@@ -4090,19 +4089,19 @@
       </c>
       <c r="G4" s="111"/>
       <c r="H4" s="112"/>
-      <c r="I4" s="104" t="s">
+      <c r="I4" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="104" t="s">
+      <c r="J4" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="104" t="s">
+      <c r="K4" s="102" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="37" t="s">
         <v>94</v>
       </c>
@@ -4121,11 +4120,11 @@
       <c r="H5" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-    </row>
-    <row r="6" spans="1:11" ht="49" customHeight="1">
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+    </row>
+    <row r="6" spans="1:11" ht="24" customHeight="1">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -4134,9 +4133,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
-      <c r="I6" s="35" t="s">
-        <v>93</v>
-      </c>
+      <c r="I6" s="35"/>
       <c r="J6" s="35"/>
       <c r="K6" s="35"/>
     </row>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10523"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{77930A97-FFB1-444D-AB23-711C4070EE9E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2FFF29D5-7CAF-3241-B51F-4DDBAB8E0A19}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1202,7 +1202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1303,7 +1303,14 @@
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1829,7 +1836,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1944,6 +1951,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1956,20 +1978,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1980,8 +1990,140 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1995,140 +2137,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2142,12 +2155,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2180,6 +2187,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2556,40 +2569,40 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="42"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="42"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A4" s="6" t="s">
@@ -2607,14 +2620,14 @@
       <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -2624,12 +2637,12 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A6" s="6" t="s">
@@ -2639,40 +2652,40 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="46" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44" t="s">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2685,12 +2698,12 @@
       <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -2702,16 +2715,16 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="44"/>
+      <c r="K9" s="40"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -2723,10 +2736,10 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="44"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A11" s="6" t="s">
@@ -2743,7 +2756,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="44"/>
+      <c r="K11" s="40"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A12" s="6" t="s">
@@ -2760,7 +2773,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="44"/>
+      <c r="K12" s="40"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="6" t="s">
@@ -2777,7 +2790,7 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="44"/>
+      <c r="K13" s="40"/>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -2794,7 +2807,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="44"/>
+      <c r="K14" s="40"/>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A15" s="9" t="s">
@@ -2806,16 +2819,16 @@
       <c r="E15" s="7"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="49"/>
+      <c r="K15" s="50"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A16" s="6" t="s">
@@ -2827,10 +2840,10 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="44"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A17" s="6" t="s">
@@ -2847,7 +2860,7 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="44"/>
+      <c r="K17" s="40"/>
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A18" s="6" t="s">
@@ -2864,7 +2877,7 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="44"/>
+      <c r="K18" s="40"/>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A19" s="6" t="s">
@@ -2881,7 +2894,7 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="44"/>
+      <c r="K19" s="40"/>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A20" s="6" t="s">
@@ -2898,35 +2911,29 @@
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="44"/>
+      <c r="K20" s="40"/>
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="36" customHeight="1">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
     </row>
     <row r="22" spans="1:11" ht="17.25" customHeight="1">
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I15:I16"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="J3:K3"/>
@@ -2943,6 +2950,12 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I15:I16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2990,102 +3003,102 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="93" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="93"/>
-      <c r="G3" s="95" t="s">
+      <c r="F3" s="51"/>
+      <c r="G3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="96"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="70" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="67" t="s">
+      <c r="G4" s="72"/>
+      <c r="H4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="74" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="80" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
-      <c r="A6" s="86"/>
-      <c r="B6" s="77" t="s">
+      <c r="A6" s="87"/>
+      <c r="B6" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="82" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="83"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="92"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66" t="s">
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="58" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="60" t="s">
@@ -3098,7 +3111,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A8" s="56"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
@@ -3108,8 +3121,8 @@
       <c r="D8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3141,7 +3154,7 @@
         <v>69</v>
       </c>
       <c r="I9" s="24"/>
-      <c r="J9" s="57"/>
+      <c r="J9" s="65"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="15"/>
@@ -3163,7 +3176,7 @@
         <v>68</v>
       </c>
       <c r="I10" s="24"/>
-      <c r="J10" s="58"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A11" s="15"/>
@@ -3181,7 +3194,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="58"/>
+      <c r="J11" s="66"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="15"/>
@@ -3199,7 +3212,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="58"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A13" s="16" t="s">
@@ -3221,21 +3234,21 @@
       <c r="G13" s="21"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="59"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66" t="s">
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="58" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="60" t="s">
@@ -3248,7 +3261,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A15" s="56"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="12" t="s">
         <v>41</v>
       </c>
@@ -3258,8 +3271,8 @@
       <c r="D15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="14" t="s">
         <v>46</v>
       </c>
@@ -3283,7 +3296,7 @@
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="57"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="15"/>
@@ -3297,7 +3310,7 @@
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="58"/>
+      <c r="J17" s="66"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="15"/>
@@ -3309,7 +3322,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="58"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="15"/>
@@ -3321,7 +3334,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="58"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="16" t="s">
@@ -3337,21 +3350,21 @@
       <c r="G20" s="21"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="59"/>
+      <c r="J20" s="67"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66" t="s">
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="65" t="s">
+      <c r="F21" s="58" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="60" t="s">
@@ -3364,7 +3377,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A22" s="56"/>
+      <c r="A22" s="89"/>
       <c r="B22" s="12" t="s">
         <v>41</v>
       </c>
@@ -3374,8 +3387,8 @@
       <c r="D22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="14" t="s">
         <v>46</v>
       </c>
@@ -3399,7 +3412,7 @@
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="57"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A24" s="15"/>
@@ -3413,7 +3426,7 @@
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="58"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="15"/>
@@ -3425,7 +3438,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="58"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="15"/>
@@ -3437,7 +3450,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="58"/>
+      <c r="J26" s="66"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A27" s="16" t="s">
@@ -3453,21 +3466,21 @@
       <c r="G27" s="21"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="59"/>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="66" t="s">
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="65" t="s">
+      <c r="F28" s="58" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="60" t="s">
@@ -3480,7 +3493,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A29" s="56"/>
+      <c r="A29" s="89"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
       </c>
@@ -3490,8 +3503,8 @@
       <c r="D29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
       <c r="G29" s="14" t="s">
         <v>46</v>
       </c>
@@ -3515,7 +3528,7 @@
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="57"/>
+      <c r="J30" s="65"/>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="15"/>
@@ -3529,7 +3542,7 @@
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="58"/>
+      <c r="J31" s="66"/>
     </row>
     <row r="32" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="15"/>
@@ -3541,7 +3554,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
-      <c r="J32" s="58"/>
+      <c r="J32" s="66"/>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="15"/>
@@ -3553,7 +3566,7 @@
       <c r="G33" s="21"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
-      <c r="J33" s="58"/>
+      <c r="J33" s="66"/>
     </row>
     <row r="34" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A34" s="16" t="s">
@@ -3569,43 +3582,71 @@
       <c r="G34" s="21"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="59"/>
+      <c r="J34" s="67"/>
     </row>
     <row r="35" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="97" t="s">
+      <c r="B35" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="99"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="57"/>
       <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="54"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="99"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1">
       <c r="J37" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="G3:J3"/>
@@ -3622,34 +3663,6 @@
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="J23:J27"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="J16:J20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3689,15 +3702,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="57.75" customHeight="1">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -3711,81 +3724,81 @@
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="100"/>
+      <c r="C4" s="102"/>
       <c r="D4" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100" t="s">
+      <c r="A5" s="102"/>
+      <c r="B5" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="100"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A6" s="100"/>
-      <c r="B6" s="100" t="s">
+      <c r="A6" s="102"/>
+      <c r="B6" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="100"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="102" t="s">
+      <c r="D7" s="102"/>
+      <c r="E7" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="102" t="s">
+      <c r="F7" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="102" t="s">
+      <c r="G7" s="104" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="37" t="s">
         <v>87</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1">
       <c r="A9" s="36"/>
@@ -3970,25 +3983,18 @@
       <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3997,6 +4003,13 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4009,7 +4022,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4043,19 +4056,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -4073,10 +4086,10 @@
       <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="102" t="s">
         <v>91</v>
       </c>
       <c r="C4" s="107" t="s">
@@ -4089,19 +4102,19 @@
       </c>
       <c r="G4" s="111"/>
       <c r="H4" s="112"/>
-      <c r="I4" s="102" t="s">
+      <c r="I4" s="117" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="102" t="s">
+      <c r="J4" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="102" t="s">
+      <c r="K4" s="104" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="37" t="s">
         <v>94</v>
       </c>
@@ -4120,9 +4133,9 @@
       <c r="H5" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1">
       <c r="A6" s="35"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2FFF29D5-7CAF-3241-B51F-4DDBAB8E0A19}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0C4453F6-C790-714C-A641-611E4CD60539}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="吹膜供料记录" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="104">
   <si>
     <t xml:space="preserve">颇尔奥星包装科技（北京）有限责任公司                                                                                            </t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1196,6 +1196,12 @@
   <si>
     <t>外中内层（A+B1+C）</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>班次</t>
+  </si>
+  <si>
+    <t>抽查结果</t>
   </si>
 </sst>
 </file>
@@ -1836,7 +1842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1951,37 +1957,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1990,6 +1999,135 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2011,148 +2149,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2569,40 +2581,40 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41" t="s">
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="41"/>
+      <c r="H3" s="44"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A4" s="6" t="s">
@@ -2620,14 +2632,14 @@
       <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -2637,12 +2649,12 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A6" s="6" t="s">
@@ -2652,40 +2664,40 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="39" t="s">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40" t="s">
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2698,12 +2710,12 @@
       <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -2715,16 +2727,16 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="42" t="s">
+      <c r="J9" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="40"/>
+      <c r="K9" s="46"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -2736,10 +2748,10 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="46"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A11" s="6" t="s">
@@ -2756,7 +2768,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="40"/>
+      <c r="K11" s="46"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A12" s="6" t="s">
@@ -2773,7 +2785,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="40"/>
+      <c r="K12" s="46"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="6" t="s">
@@ -2790,7 +2802,7 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="40"/>
+      <c r="K13" s="46"/>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -2807,7 +2819,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="40"/>
+      <c r="K14" s="46"/>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A15" s="9" t="s">
@@ -2819,16 +2831,16 @@
       <c r="E15" s="7"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="42" t="s">
+      <c r="J15" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="50"/>
+      <c r="K15" s="51"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A16" s="6" t="s">
@@ -2840,10 +2852,10 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="46"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A17" s="6" t="s">
@@ -2860,7 +2872,7 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="40"/>
+      <c r="K17" s="46"/>
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A18" s="6" t="s">
@@ -2877,7 +2889,7 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="40"/>
+      <c r="K18" s="46"/>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A19" s="6" t="s">
@@ -2894,7 +2906,7 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="40"/>
+      <c r="K19" s="46"/>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A20" s="6" t="s">
@@ -2911,29 +2923,35 @@
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="40"/>
+      <c r="K20" s="46"/>
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="36" customHeight="1">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
     </row>
     <row r="22" spans="1:11" ht="17.25" customHeight="1">
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I15:I16"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="J3:K3"/>
@@ -2950,12 +2968,6 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I15:I16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3003,115 +3015,115 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="51" t="s">
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="53" t="s">
+      <c r="F3" s="95"/>
+      <c r="G3" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="98"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="71" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="68" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="71"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="86"/>
-      <c r="B5" s="75" t="s">
+      <c r="A5" s="87"/>
+      <c r="B5" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="81" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="82"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="92"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="78" t="s">
+      <c r="A6" s="88"/>
+      <c r="B6" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="83" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="84"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="95"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="94"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59" t="s">
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63" t="s">
+      <c r="H7" s="63"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A8" s="89"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
@@ -3121,8 +3133,8 @@
       <c r="D8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3132,7 +3144,7 @@
       <c r="I8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="64"/>
+      <c r="J8" s="66"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A9" s="15"/>
@@ -3154,7 +3166,7 @@
         <v>69</v>
       </c>
       <c r="I9" s="24"/>
-      <c r="J9" s="65"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="15"/>
@@ -3176,7 +3188,7 @@
         <v>68</v>
       </c>
       <c r="I10" s="24"/>
-      <c r="J10" s="66"/>
+      <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A11" s="15"/>
@@ -3194,7 +3206,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="66"/>
+      <c r="J11" s="60"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="15"/>
@@ -3212,7 +3224,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="66"/>
+      <c r="J12" s="60"/>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A13" s="16" t="s">
@@ -3234,34 +3246,34 @@
       <c r="G13" s="21"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="67"/>
+      <c r="J13" s="61"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59" t="s">
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="63" t="s">
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A15" s="89"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="12" t="s">
         <v>41</v>
       </c>
@@ -3271,8 +3283,8 @@
       <c r="D15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
       <c r="G15" s="14" t="s">
         <v>46</v>
       </c>
@@ -3282,7 +3294,7 @@
       <c r="I15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="64"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="15"/>
@@ -3296,7 +3308,7 @@
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="65"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="15"/>
@@ -3310,7 +3322,7 @@
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="66"/>
+      <c r="J17" s="60"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="15"/>
@@ -3322,7 +3334,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="66"/>
+      <c r="J18" s="60"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="15"/>
@@ -3334,7 +3346,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="66"/>
+      <c r="J19" s="60"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="16" t="s">
@@ -3350,34 +3362,34 @@
       <c r="G20" s="21"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="67"/>
+      <c r="J20" s="61"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="59" t="s">
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="60" t="s">
+      <c r="G21" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="63" t="s">
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A22" s="89"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="12" t="s">
         <v>41</v>
       </c>
@@ -3387,8 +3399,8 @@
       <c r="D22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
       <c r="G22" s="14" t="s">
         <v>46</v>
       </c>
@@ -3398,7 +3410,7 @@
       <c r="I22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="64"/>
+      <c r="J22" s="66"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A23" s="15"/>
@@ -3412,7 +3424,7 @@
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="65"/>
+      <c r="J23" s="59"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A24" s="15"/>
@@ -3426,7 +3438,7 @@
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="66"/>
+      <c r="J24" s="60"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="15"/>
@@ -3438,7 +3450,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="66"/>
+      <c r="J25" s="60"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="15"/>
@@ -3450,7 +3462,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="66"/>
+      <c r="J26" s="60"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A27" s="16" t="s">
@@ -3466,34 +3478,34 @@
       <c r="G27" s="21"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="67"/>
+      <c r="J27" s="61"/>
     </row>
     <row r="28" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59" t="s">
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="58" t="s">
+      <c r="F28" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="60" t="s">
+      <c r="G28" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="61"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="63" t="s">
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="65" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A29" s="89"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
       </c>
@@ -3503,8 +3515,8 @@
       <c r="D29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
       <c r="G29" s="14" t="s">
         <v>46</v>
       </c>
@@ -3514,7 +3526,7 @@
       <c r="I29" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="64"/>
+      <c r="J29" s="66"/>
     </row>
     <row r="30" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="15"/>
@@ -3528,7 +3540,7 @@
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="65"/>
+      <c r="J30" s="59"/>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="15"/>
@@ -3542,7 +3554,7 @@
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="66"/>
+      <c r="J31" s="60"/>
     </row>
     <row r="32" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="15"/>
@@ -3554,7 +3566,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
-      <c r="J32" s="66"/>
+      <c r="J32" s="60"/>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="15"/>
@@ -3566,7 +3578,7 @@
       <c r="G33" s="21"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
-      <c r="J33" s="66"/>
+      <c r="J33" s="60"/>
     </row>
     <row r="34" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A34" s="16" t="s">
@@ -3582,55 +3594,59 @@
       <c r="G34" s="21"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="67"/>
+      <c r="J34" s="61"/>
     </row>
     <row r="35" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="57"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="101"/>
       <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A36" s="96" t="s">
+      <c r="A36" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="98"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="99"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="56"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1">
       <c r="J37" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="H4:J4"/>
@@ -3647,22 +3663,18 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="J16:J20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3702,15 +3714,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="57.75" customHeight="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -3995,6 +4007,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -4003,13 +4022,6 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4019,26 +4031,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="11" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.5" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="5.5" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
+    <row r="1" spans="1:12" ht="15" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>73</v>
       </c>
@@ -4051,26 +4066,28 @@
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A2" s="100" t="s">
+    <row r="2" spans="1:12" ht="40.5" customHeight="1">
+      <c r="A2" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-    </row>
-    <row r="3" spans="1:11" ht="22.5" customHeight="1">
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+    </row>
+    <row r="3" spans="1:12" ht="22.5" customHeight="1">
       <c r="A3" s="31" t="s">
         <v>75</v>
       </c>
@@ -4083,120 +4100,129 @@
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
-      <c r="K3" s="33"/>
-    </row>
-    <row r="4" spans="1:11" ht="22.5" customHeight="1">
+      <c r="K3" s="32"/>
+      <c r="L3" s="33"/>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1">
       <c r="A4" s="102" t="s">
         <v>92</v>
       </c>
       <c r="B4" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="108"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="110" t="s">
+      <c r="E4" s="110"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="111"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="104" t="s">
+      <c r="H4" s="113"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="119" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="104" t="s">
+      <c r="L4" s="104" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="22.5" customHeight="1">
+    <row r="5" spans="1:12" ht="22.5" customHeight="1">
       <c r="A5" s="102"/>
       <c r="B5" s="102"/>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="105"/>
+      <c r="D5" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="E5" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="F5" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="G5" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="H5" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="I5" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="118"/>
-      <c r="J5" s="105"/>
+      <c r="J5" s="120"/>
       <c r="K5" s="105"/>
-    </row>
-    <row r="6" spans="1:11" ht="24" customHeight="1">
+      <c r="L5" s="105"/>
+    </row>
+    <row r="6" spans="1:12" ht="24" customHeight="1">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
-      <c r="I6" s="35"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="35"/>
       <c r="K6" s="35"/>
-    </row>
-    <row r="7" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A7" s="113" t="s">
+      <c r="L6" s="35"/>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1">
+      <c r="A7" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="113"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="115"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="113"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="116"/>
       <c r="G7" s="115"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="116" t="s">
+      <c r="H7" s="117"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="J7" s="115"/>
-      <c r="K7" s="114"/>
-    </row>
-    <row r="8" spans="1:11" ht="42" customHeight="1">
-      <c r="A8" s="106" t="s">
+      <c r="K7" s="117"/>
+      <c r="L7" s="116"/>
+    </row>
+    <row r="8" spans="1:12" ht="42" customHeight="1">
+      <c r="A8" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
+  <mergeCells count="14">
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0C4453F6-C790-714C-A641-611E4CD60539}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EBA428DA-133B-AE48-BAD5-508C0CDF6793}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="吹膜供料记录" sheetId="5" r:id="rId1"/>
@@ -1960,8 +1960,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1975,20 +1987,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1999,8 +1999,140 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2014,140 +2146,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2161,12 +2164,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2205,6 +2202,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2581,40 +2581,40 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="44"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="44"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A4" s="6" t="s">
@@ -2672,32 +2672,32 @@
       <c r="K6" s="50"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="48" t="s">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46" t="s">
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A8" s="46"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2710,12 +2710,12 @@
       <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -2727,16 +2727,16 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="47" t="s">
+      <c r="J9" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="46"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -2748,10 +2748,10 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="46"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A11" s="6" t="s">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="46"/>
+      <c r="K11" s="41"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A12" s="6" t="s">
@@ -2785,7 +2785,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="46"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="6" t="s">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="46"/>
+      <c r="K13" s="41"/>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="46"/>
+      <c r="K14" s="41"/>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A15" s="9" t="s">
@@ -2831,13 +2831,13 @@
       <c r="E15" s="7"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="47" t="s">
+      <c r="J15" s="43" t="s">
         <v>28</v>
       </c>
       <c r="K15" s="51"/>
@@ -2852,10 +2852,10 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="46"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A17" s="6" t="s">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="46"/>
+      <c r="K17" s="41"/>
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A18" s="6" t="s">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="46"/>
+      <c r="K18" s="41"/>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A19" s="6" t="s">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="46"/>
+      <c r="K19" s="41"/>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A20" s="6" t="s">
@@ -2923,35 +2923,29 @@
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="46"/>
+      <c r="K20" s="41"/>
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="36" customHeight="1">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
     </row>
     <row r="22" spans="1:11" ht="17.25" customHeight="1">
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I15:I16"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="J3:K3"/>
@@ -2968,6 +2962,12 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I15:I16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3015,36 +3015,36 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="95" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="95"/>
-      <c r="G3" s="97" t="s">
+      <c r="F3" s="52"/>
+      <c r="G3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="98"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A4" s="86" t="s">
@@ -3078,9 +3078,9 @@
         <v>63</v>
       </c>
       <c r="G5" s="83"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A6" s="88"/>
@@ -3094,36 +3094,36 @@
         <v>51</v>
       </c>
       <c r="G6" s="85"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="96"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="68" t="s">
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A8" s="58"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
@@ -3133,8 +3133,8 @@
       <c r="D8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3144,7 +3144,7 @@
       <c r="I8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="66"/>
+      <c r="J8" s="65"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A9" s="15"/>
@@ -3166,7 +3166,7 @@
         <v>69</v>
       </c>
       <c r="I9" s="24"/>
-      <c r="J9" s="59"/>
+      <c r="J9" s="66"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="15"/>
@@ -3188,7 +3188,7 @@
         <v>68</v>
       </c>
       <c r="I10" s="24"/>
-      <c r="J10" s="60"/>
+      <c r="J10" s="67"/>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A11" s="15"/>
@@ -3206,7 +3206,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="60"/>
+      <c r="J11" s="67"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="15"/>
@@ -3224,7 +3224,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="60"/>
+      <c r="J12" s="67"/>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A13" s="16" t="s">
@@ -3246,34 +3246,34 @@
       <c r="G13" s="21"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="61"/>
+      <c r="J13" s="68"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68" t="s">
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="62" t="s">
+      <c r="G14" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="63"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65" t="s">
+      <c r="H14" s="62"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="64" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A15" s="58"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="12" t="s">
         <v>41</v>
       </c>
@@ -3283,8 +3283,8 @@
       <c r="D15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="14" t="s">
         <v>46</v>
       </c>
@@ -3294,7 +3294,7 @@
       <c r="I15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="66"/>
+      <c r="J15" s="65"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="15"/>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="59"/>
+      <c r="J16" s="66"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="15"/>
@@ -3322,7 +3322,7 @@
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="60"/>
+      <c r="J17" s="67"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="15"/>
@@ -3334,7 +3334,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="60"/>
+      <c r="J18" s="67"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="15"/>
@@ -3346,7 +3346,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="60"/>
+      <c r="J19" s="67"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="16" t="s">
@@ -3362,34 +3362,34 @@
       <c r="G20" s="21"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="61"/>
+      <c r="J20" s="68"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="68" t="s">
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="62" t="s">
+      <c r="G21" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="63"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="65" t="s">
+      <c r="H21" s="62"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="64" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A22" s="58"/>
+      <c r="A22" s="90"/>
       <c r="B22" s="12" t="s">
         <v>41</v>
       </c>
@@ -3399,8 +3399,8 @@
       <c r="D22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="14" t="s">
         <v>46</v>
       </c>
@@ -3410,7 +3410,7 @@
       <c r="I22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="66"/>
+      <c r="J22" s="65"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A23" s="15"/>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="59"/>
+      <c r="J23" s="66"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A24" s="15"/>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="60"/>
+      <c r="J24" s="67"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="15"/>
@@ -3450,7 +3450,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="60"/>
+      <c r="J25" s="67"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="15"/>
@@ -3462,7 +3462,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="60"/>
+      <c r="J26" s="67"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A27" s="16" t="s">
@@ -3478,34 +3478,34 @@
       <c r="G27" s="21"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="61"/>
+      <c r="J27" s="68"/>
     </row>
     <row r="28" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68" t="s">
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="67" t="s">
+      <c r="F28" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="62" t="s">
+      <c r="G28" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="63"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="65" t="s">
+      <c r="H28" s="62"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="64" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A29" s="58"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
       </c>
@@ -3515,8 +3515,8 @@
       <c r="D29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
       <c r="G29" s="14" t="s">
         <v>46</v>
       </c>
@@ -3526,7 +3526,7 @@
       <c r="I29" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="66"/>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="15"/>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="59"/>
+      <c r="J30" s="66"/>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="15"/>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="60"/>
+      <c r="J31" s="67"/>
     </row>
     <row r="32" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="15"/>
@@ -3566,7 +3566,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
-      <c r="J32" s="60"/>
+      <c r="J32" s="67"/>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="15"/>
@@ -3578,7 +3578,7 @@
       <c r="G33" s="21"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
-      <c r="J33" s="60"/>
+      <c r="J33" s="67"/>
     </row>
     <row r="34" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A34" s="16" t="s">
@@ -3594,43 +3594,71 @@
       <c r="G34" s="21"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="61"/>
+      <c r="J34" s="68"/>
     </row>
     <row r="35" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="99" t="s">
+      <c r="B35" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="100"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="100"/>
-      <c r="I35" s="101"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="58"/>
       <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="56"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="100"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1">
       <c r="J37" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="G3:J3"/>
@@ -3647,34 +3675,6 @@
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="J23:J27"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="J16:J20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3714,15 +3714,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="57.75" customHeight="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -3736,81 +3736,81 @@
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="102"/>
+      <c r="C4" s="103"/>
       <c r="D4" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102" t="s">
+      <c r="A5" s="103"/>
+      <c r="B5" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="102"/>
+      <c r="C5" s="103"/>
       <c r="D5" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A6" s="102"/>
-      <c r="B6" s="102" t="s">
+      <c r="A6" s="103"/>
+      <c r="B6" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="102"/>
+      <c r="C6" s="103"/>
       <c r="D6" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="104" t="s">
+      <c r="D7" s="103"/>
+      <c r="E7" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="104" t="s">
+      <c r="G7" s="105" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="37" t="s">
         <v>87</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
     </row>
     <row r="9" spans="1:7" ht="22.5" customHeight="1">
       <c r="A9" s="36"/>
@@ -3995,25 +3995,18 @@
       <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -4022,6 +4015,13 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4034,7 +4034,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4072,20 +4072,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="40.5" customHeight="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
     </row>
     <row r="3" spans="1:12" ht="22.5" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -4104,39 +4104,39 @@
       <c r="L3" s="33"/>
     </row>
     <row r="4" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="112" t="s">
+      <c r="E4" s="109"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="113"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="119" t="s">
+      <c r="H4" s="112"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="K4" s="104" t="s">
+      <c r="K4" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="104" t="s">
+      <c r="L4" s="105" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="105"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="37" t="s">
         <v>94</v>
       </c>
@@ -4155,9 +4155,9 @@
       <c r="I5" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="120"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
     </row>
     <row r="6" spans="1:12" ht="24" customHeight="1">
       <c r="A6" s="35"/>
@@ -4174,38 +4174,38 @@
       <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="118" t="s">
+      <c r="B7" s="115"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="K7" s="117"/>
-      <c r="L7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="115"/>
     </row>
     <row r="8" spans="1:12" ht="42" customHeight="1">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EBA428DA-133B-AE48-BAD5-508C0CDF6793}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{03BB43DA-4BB0-AD46-9991-9DA664BA5EA8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="105">
   <si>
     <t xml:space="preserve">颇尔奥星包装科技（北京）有限责任公司                                                                                            </t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1202,6 +1202,9 @@
   </si>
   <si>
     <t>抽查结果</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
 </sst>
 </file>
@@ -1842,7 +1845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1960,37 +1963,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1999,6 +2005,135 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2020,131 +2155,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2152,21 +2173,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2203,8 +2209,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2581,40 +2605,40 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42" t="s">
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="42"/>
+      <c r="H3" s="45"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="42"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A4" s="6" t="s">
@@ -2632,14 +2656,14 @@
       <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -2649,12 +2673,12 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A6" s="6" t="s">
@@ -2664,40 +2688,40 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="40" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41" t="s">
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2710,12 +2734,12 @@
       <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -2727,16 +2751,16 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="41"/>
+      <c r="K9" s="47"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -2748,10 +2772,10 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="47"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A11" s="6" t="s">
@@ -2768,7 +2792,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="41"/>
+      <c r="K11" s="47"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A12" s="6" t="s">
@@ -2785,7 +2809,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="41"/>
+      <c r="K12" s="47"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="6" t="s">
@@ -2802,7 +2826,7 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="41"/>
+      <c r="K13" s="47"/>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -2819,7 +2843,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="41"/>
+      <c r="K14" s="47"/>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A15" s="9" t="s">
@@ -2831,16 +2855,16 @@
       <c r="E15" s="7"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="51"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A16" s="6" t="s">
@@ -2852,10 +2876,10 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="47"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A17" s="6" t="s">
@@ -2872,7 +2896,7 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="41"/>
+      <c r="K17" s="47"/>
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A18" s="6" t="s">
@@ -2889,7 +2913,7 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="41"/>
+      <c r="K18" s="47"/>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A19" s="6" t="s">
@@ -2906,7 +2930,7 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="41"/>
+      <c r="K19" s="47"/>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
       <c r="A20" s="6" t="s">
@@ -2923,29 +2947,35 @@
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="41"/>
+      <c r="K20" s="47"/>
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="36" customHeight="1">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
     </row>
     <row r="22" spans="1:11" ht="17.25" customHeight="1">
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I15:I16"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="J3:K3"/>
@@ -2962,12 +2992,6 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I15:I16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3015,115 +3039,115 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="52" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="54" t="s">
+      <c r="F3" s="96"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="99"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="72" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="69" t="s">
+      <c r="G4" s="74"/>
+      <c r="H4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="87"/>
-      <c r="B5" s="76" t="s">
+      <c r="A5" s="88"/>
+      <c r="B5" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="82" t="s">
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="83"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="93"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
-      <c r="A6" s="88"/>
-      <c r="B6" s="79" t="s">
+      <c r="A6" s="89"/>
+      <c r="B6" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="84" t="s">
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="85"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="96"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60" t="s">
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64" t="s">
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A8" s="90"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
@@ -3133,8 +3157,8 @@
       <c r="D8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
       <c r="G8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3144,7 +3168,7 @@
       <c r="I8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="65"/>
+      <c r="J8" s="67"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A9" s="15"/>
@@ -3166,7 +3190,7 @@
         <v>69</v>
       </c>
       <c r="I9" s="24"/>
-      <c r="J9" s="66"/>
+      <c r="J9" s="60"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="15"/>
@@ -3188,7 +3212,7 @@
         <v>68</v>
       </c>
       <c r="I10" s="24"/>
-      <c r="J10" s="67"/>
+      <c r="J10" s="61"/>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A11" s="15"/>
@@ -3206,7 +3230,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="67"/>
+      <c r="J11" s="61"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="15"/>
@@ -3224,7 +3248,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="67"/>
+      <c r="J12" s="61"/>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A13" s="16" t="s">
@@ -3246,34 +3270,34 @@
       <c r="G13" s="21"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="68"/>
+      <c r="J13" s="62"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60" t="s">
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="61" t="s">
+      <c r="G14" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64" t="s">
+      <c r="H14" s="64"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="66" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A15" s="90"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="12" t="s">
         <v>41</v>
       </c>
@@ -3283,8 +3307,8 @@
       <c r="D15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
       <c r="G15" s="14" t="s">
         <v>46</v>
       </c>
@@ -3294,7 +3318,7 @@
       <c r="I15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="65"/>
+      <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="15"/>
@@ -3308,7 +3332,7 @@
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="66"/>
+      <c r="J16" s="60"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="15"/>
@@ -3322,7 +3346,7 @@
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="67"/>
+      <c r="J17" s="61"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="15"/>
@@ -3334,7 +3358,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="67"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="15"/>
@@ -3346,7 +3370,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="67"/>
+      <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A20" s="16" t="s">
@@ -3362,34 +3386,34 @@
       <c r="G20" s="21"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="68"/>
+      <c r="J20" s="62"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="60" t="s">
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="61" t="s">
+      <c r="G21" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="62"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="64" t="s">
+      <c r="H21" s="64"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="66" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A22" s="90"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="12" t="s">
         <v>41</v>
       </c>
@@ -3399,8 +3423,8 @@
       <c r="D22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="14" t="s">
         <v>46</v>
       </c>
@@ -3410,7 +3434,7 @@
       <c r="I22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="65"/>
+      <c r="J22" s="67"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A23" s="15"/>
@@ -3424,7 +3448,7 @@
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="66"/>
+      <c r="J23" s="60"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A24" s="15"/>
@@ -3438,7 +3462,7 @@
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="67"/>
+      <c r="J24" s="61"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="15"/>
@@ -3450,7 +3474,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="67"/>
+      <c r="J25" s="61"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="15"/>
@@ -3462,7 +3486,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="67"/>
+      <c r="J26" s="61"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A27" s="16" t="s">
@@ -3478,34 +3502,34 @@
       <c r="G27" s="21"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="68"/>
+      <c r="J27" s="62"/>
     </row>
     <row r="28" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A28" s="89" t="s">
+      <c r="A28" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="60" t="s">
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="59" t="s">
+      <c r="F28" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="61" t="s">
+      <c r="G28" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="62"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="64" t="s">
+      <c r="H28" s="64"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="66" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A29" s="90"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
       </c>
@@ -3515,8 +3539,8 @@
       <c r="D29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
       <c r="G29" s="14" t="s">
         <v>46</v>
       </c>
@@ -3526,7 +3550,7 @@
       <c r="I29" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="65"/>
+      <c r="J29" s="67"/>
     </row>
     <row r="30" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="15"/>
@@ -3540,7 +3564,7 @@
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="66"/>
+      <c r="J30" s="60"/>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="15"/>
@@ -3554,7 +3578,7 @@
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="67"/>
+      <c r="J31" s="61"/>
     </row>
     <row r="32" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="15"/>
@@ -3566,7 +3590,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
-      <c r="J32" s="67"/>
+      <c r="J32" s="61"/>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="15"/>
@@ -3578,7 +3602,7 @@
       <c r="G33" s="21"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
-      <c r="J33" s="67"/>
+      <c r="J33" s="61"/>
     </row>
     <row r="34" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A34" s="16" t="s">
@@ -3594,55 +3618,59 @@
       <c r="G34" s="21"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="68"/>
+      <c r="J34" s="62"/>
     </row>
     <row r="35" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="58"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="102"/>
       <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A36" s="97" t="s">
+      <c r="A36" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="100"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="57"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1">
       <c r="J37" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="H4:J4"/>
@@ -3659,22 +3687,18 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="J16:J20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3714,15 +3738,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="57.75" customHeight="1">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -4007,6 +4031,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -4015,13 +4046,6 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4031,29 +4055,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="M4" sqref="M4:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
     <col min="3" max="3" width="5.5" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="5.5" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="11" max="12" width="7.83203125" customWidth="1"/>
+    <col min="13" max="13" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1">
+    <row r="1" spans="1:13" ht="15" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>73</v>
       </c>
@@ -4067,27 +4091,27 @@
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
-      <c r="L1" s="34" t="s">
+      <c r="M1" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="40.5" customHeight="1">
-      <c r="A2" s="101" t="s">
+    <row r="2" spans="1:13" ht="40.5" customHeight="1">
+      <c r="A2" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-    </row>
-    <row r="3" spans="1:12" ht="22.5" customHeight="1">
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+    </row>
+    <row r="3" spans="1:13" ht="22.5" customHeight="1">
       <c r="A3" s="31" t="s">
         <v>75</v>
       </c>
@@ -4101,9 +4125,10 @@
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
-      <c r="L3" s="33"/>
-    </row>
-    <row r="4" spans="1:12" ht="22.5" customHeight="1">
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
+    </row>
+    <row r="4" spans="1:13" ht="22.5" customHeight="1">
       <c r="A4" s="103" t="s">
         <v>92</v>
       </c>
@@ -4113,17 +4138,17 @@
       <c r="C4" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111" t="s">
+      <c r="E4" s="110"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="112"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="118" t="s">
+      <c r="H4" s="113"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="119" t="s">
         <v>103</v>
       </c>
       <c r="K4" s="105" t="s">
@@ -4132,8 +4157,11 @@
       <c r="L4" s="105" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="22.5" customHeight="1">
+      <c r="M4" s="105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="22.5" customHeight="1">
       <c r="A5" s="103"/>
       <c r="B5" s="103"/>
       <c r="C5" s="106"/>
@@ -4155,68 +4183,73 @@
       <c r="I5" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="119"/>
+      <c r="J5" s="120"/>
       <c r="K5" s="106"/>
       <c r="L5" s="106"/>
-    </row>
-    <row r="6" spans="1:12" ht="24" customHeight="1">
+      <c r="M5" s="106"/>
+    </row>
+    <row r="6" spans="1:13" ht="24" customHeight="1">
       <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
+      <c r="B6" s="121"/>
       <c r="C6" s="38"/>
-      <c r="D6" s="35"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="37"/>
       <c r="F6" s="35"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="127"/>
       <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-    </row>
-    <row r="7" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A7" s="114" t="s">
+      <c r="I6" s="39"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="39"/>
+    </row>
+    <row r="7" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A7" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="117" t="s">
+      <c r="B7" s="116"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="K7" s="116"/>
-      <c r="L7" s="115"/>
-    </row>
-    <row r="8" spans="1:12" ht="42" customHeight="1">
-      <c r="A8" s="107" t="s">
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="123"/>
+    </row>
+    <row r="8" spans="1:13" ht="42" customHeight="1">
+      <c r="A8" s="124" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="126"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="A8:M8"/>
     <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A8:L8"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="J4:J5"/>
@@ -4226,7 +4259,7 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.19685039370078741"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R06 吹膜供料记录.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{03BB43DA-4BB0-AD46-9991-9DA664BA5EA8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="465" windowWidth="27945" windowHeight="17535" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="吹膜供料记录" sheetId="5" r:id="rId1"/>
@@ -1210,19 +1209,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1230,21 +1229,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1296,7 +1295,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1304,21 +1303,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1969,6 +1968,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2173,6 +2178,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2200,40 +2223,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2249,7 +2248,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2324,23 +2323,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2376,23 +2358,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2568,26 +2533,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="13.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.6640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2604,43 +2569,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-    </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="45"/>
+      <c r="H3" s="47"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="45"/>
-    </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="K3" s="47"/>
+    </row>
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2656,16 +2621,16 @@
       <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -2673,14 +2638,14 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-    </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -2688,40 +2653,40 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-    </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="49" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47" t="s">
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A8" s="47"/>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="49"/>
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2734,14 +2699,14 @@
       <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-    </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -2751,18 +2716,18 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="48" t="s">
+      <c r="J9" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="47"/>
-    </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
+      <c r="K9" s="49"/>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -2772,12 +2737,12 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="47"/>
-    </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
+      <c r="H10" s="49"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="49"/>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -2792,9 +2757,9 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="47"/>
-    </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
+      <c r="K11" s="49"/>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -2809,9 +2774,9 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="47"/>
-    </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
+      <c r="K12" s="49"/>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -2826,9 +2791,9 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="47"/>
-    </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
+      <c r="K13" s="49"/>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2843,9 +2808,9 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="47"/>
-    </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
+      <c r="K14" s="49"/>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
@@ -2855,18 +2820,18 @@
       <c r="E15" s="7"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="48" t="s">
+      <c r="I15" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="48" t="s">
+      <c r="J15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="52"/>
-    </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
+      <c r="K15" s="54"/>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -2876,12 +2841,12 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="47"/>
-    </row>
-    <row r="17" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
+      <c r="H16" s="49"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="49"/>
+    </row>
+    <row r="17" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
@@ -2896,9 +2861,9 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="47"/>
-    </row>
-    <row r="18" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
+      <c r="K17" s="49"/>
+    </row>
+    <row r="18" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -2913,9 +2878,9 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="47"/>
-    </row>
-    <row r="19" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
+      <c r="K18" s="49"/>
+    </row>
+    <row r="19" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
@@ -2930,9 +2895,9 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="47"/>
-    </row>
-    <row r="20" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
+      <c r="K19" s="49"/>
+    </row>
+    <row r="20" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
@@ -2947,26 +2912,26 @@
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="47"/>
-    </row>
-    <row r="21" spans="1:11" s="4" customFormat="1" ht="36" customHeight="1">
-      <c r="A21" s="43" t="s">
+      <c r="K20" s="49"/>
+    </row>
+    <row r="21" spans="1:11" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-    </row>
-    <row r="22" spans="1:11" ht="17.25" customHeight="1">
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+    </row>
+    <row r="22" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -3001,28 +2966,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="7.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="7.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3038,116 +3003,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-    </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="97" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="96" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="98"/>
+      <c r="G3" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="99"/>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="87" t="s">
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="101"/>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="73" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="70" t="s">
+      <c r="G4" s="76"/>
+      <c r="H4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
-    </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="88"/>
-      <c r="B5" s="77" t="s">
+      <c r="I4" s="73"/>
+      <c r="J4" s="74"/>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="90"/>
+      <c r="B5" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="83" t="s">
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="84"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="92"/>
-    </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
-      <c r="A6" s="89"/>
-      <c r="B6" s="80" t="s">
+      <c r="G5" s="86"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="94"/>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="91"/>
+      <c r="B6" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="85" t="s">
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="86"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="95"/>
-    </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="58" t="s">
+      <c r="G6" s="88"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="97"/>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69" t="s">
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="66"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="68" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A8" s="59"/>
+    <row r="8" spans="1:10" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="61"/>
       <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
@@ -3157,8 +3122,8 @@
       <c r="D8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
       <c r="G8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3168,9 +3133,9 @@
       <c r="I8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="67"/>
-    </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
+      <c r="J8" s="69"/>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="28" t="s">
         <v>55</v>
@@ -3190,9 +3155,9 @@
         <v>69</v>
       </c>
       <c r="I9" s="24"/>
-      <c r="J9" s="60"/>
-    </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
+      <c r="J9" s="62"/>
+    </row>
+    <row r="10" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="28" t="s">
         <v>56</v>
@@ -3212,9 +3177,9 @@
         <v>68</v>
       </c>
       <c r="I10" s="24"/>
-      <c r="J10" s="61"/>
-    </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
+      <c r="J10" s="63"/>
+    </row>
+    <row r="11" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="28" t="s">
         <v>57</v>
@@ -3230,9 +3195,9 @@
       <c r="G11" s="21"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="61"/>
-    </row>
-    <row r="12" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
+      <c r="J11" s="63"/>
+    </row>
+    <row r="12" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="28" t="s">
         <v>58</v>
@@ -3248,9 +3213,9 @@
       <c r="G12" s="21"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="61"/>
-    </row>
-    <row r="13" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
+      <c r="J12" s="63"/>
+    </row>
+    <row r="13" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>37</v>
       </c>
@@ -3270,34 +3235,34 @@
       <c r="G13" s="21"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="62"/>
-    </row>
-    <row r="14" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A14" s="58" t="s">
+      <c r="J13" s="64"/>
+    </row>
+    <row r="14" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69" t="s">
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="63" t="s">
+      <c r="G14" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="64"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="66" t="s">
+      <c r="H14" s="66"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="68" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A15" s="59"/>
+    <row r="15" spans="1:10" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.15">
+      <c r="A15" s="61"/>
       <c r="B15" s="12" t="s">
         <v>41</v>
       </c>
@@ -3307,8 +3272,8 @@
       <c r="D15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="14" t="s">
         <v>46</v>
       </c>
@@ -3318,9 +3283,9 @@
       <c r="I15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="67"/>
-    </row>
-    <row r="16" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
+      <c r="J15" s="69"/>
+    </row>
+    <row r="16" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3332,9 +3297,9 @@
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="60"/>
-    </row>
-    <row r="17" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
+      <c r="J16" s="62"/>
+    </row>
+    <row r="17" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3346,9 +3311,9 @@
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="61"/>
-    </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
+      <c r="J17" s="63"/>
+    </row>
+    <row r="18" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3358,9 +3323,9 @@
       <c r="G18" s="21"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="61"/>
-    </row>
-    <row r="19" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
+      <c r="J18" s="63"/>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -3370,9 +3335,9 @@
       <c r="G19" s="21"/>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="61"/>
-    </row>
-    <row r="20" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
+      <c r="J19" s="63"/>
+    </row>
+    <row r="20" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>37</v>
       </c>
@@ -3386,34 +3351,34 @@
       <c r="G20" s="21"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="62"/>
-    </row>
-    <row r="21" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A21" s="58" t="s">
+      <c r="J20" s="64"/>
+    </row>
+    <row r="21" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69" t="s">
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="68" t="s">
+      <c r="F21" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="G21" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="64"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="66" t="s">
+      <c r="H21" s="66"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="68" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A22" s="59"/>
+    <row r="22" spans="1:10" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.15">
+      <c r="A22" s="61"/>
       <c r="B22" s="12" t="s">
         <v>41</v>
       </c>
@@ -3423,8 +3388,8 @@
       <c r="D22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
       <c r="G22" s="14" t="s">
         <v>46</v>
       </c>
@@ -3434,9 +3399,9 @@
       <c r="I22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="67"/>
-    </row>
-    <row r="23" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
+      <c r="J22" s="69"/>
+    </row>
+    <row r="23" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3448,9 +3413,9 @@
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
-      <c r="J23" s="60"/>
-    </row>
-    <row r="24" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
+      <c r="J23" s="62"/>
+    </row>
+    <row r="24" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -3462,9 +3427,9 @@
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="61"/>
-    </row>
-    <row r="25" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
+      <c r="J24" s="63"/>
+    </row>
+    <row r="25" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -3474,9 +3439,9 @@
       <c r="G25" s="21"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="61"/>
-    </row>
-    <row r="26" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
+      <c r="J25" s="63"/>
+    </row>
+    <row r="26" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -3486,9 +3451,9 @@
       <c r="G26" s="21"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="61"/>
-    </row>
-    <row r="27" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
+      <c r="J26" s="63"/>
+    </row>
+    <row r="27" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>37</v>
       </c>
@@ -3502,34 +3467,34 @@
       <c r="G27" s="21"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="62"/>
-    </row>
-    <row r="28" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A28" s="58" t="s">
+      <c r="J27" s="64"/>
+    </row>
+    <row r="28" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="69" t="s">
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="68" t="s">
+      <c r="F28" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="63" t="s">
+      <c r="G28" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="64"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="66" t="s">
+      <c r="H28" s="66"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="68" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="4" customFormat="1" ht="28">
-      <c r="A29" s="59"/>
+    <row r="29" spans="1:10" s="4" customFormat="1" ht="27.75" x14ac:dyDescent="0.15">
+      <c r="A29" s="61"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
       </c>
@@ -3539,8 +3504,8 @@
       <c r="D29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
       <c r="G29" s="14" t="s">
         <v>46</v>
       </c>
@@ -3550,9 +3515,9 @@
       <c r="I29" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="67"/>
-    </row>
-    <row r="30" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
+      <c r="J29" s="69"/>
+    </row>
+    <row r="30" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -3564,9 +3529,9 @@
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="60"/>
-    </row>
-    <row r="31" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
+      <c r="J30" s="62"/>
+    </row>
+    <row r="31" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -3578,9 +3543,9 @@
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
-      <c r="J31" s="61"/>
-    </row>
-    <row r="32" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
+      <c r="J31" s="63"/>
+    </row>
+    <row r="32" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -3590,9 +3555,9 @@
       <c r="G32" s="21"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
-      <c r="J32" s="61"/>
-    </row>
-    <row r="33" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1">
+      <c r="J32" s="63"/>
+    </row>
+    <row r="33" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -3602,9 +3567,9 @@
       <c r="G33" s="21"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
-      <c r="J33" s="61"/>
-    </row>
-    <row r="34" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
+      <c r="J33" s="63"/>
+    </row>
+    <row r="34" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>37</v>
       </c>
@@ -3618,39 +3583,39 @@
       <c r="G34" s="21"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="62"/>
-    </row>
-    <row r="35" spans="1:10" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
+      <c r="J34" s="64"/>
+    </row>
+    <row r="35" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="100" t="s">
+      <c r="B35" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="102"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="104"/>
       <c r="J35" s="18"/>
     </row>
-    <row r="36" spans="1:10" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A36" s="54" t="s">
+    <row r="36" spans="1:10" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="57"/>
-    </row>
-    <row r="37" spans="1:10" ht="17.25" customHeight="1">
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="59"/>
+    </row>
+    <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J37" s="19"/>
     </row>
   </sheetData>
@@ -3708,23 +3673,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="1" max="1" width="6.125" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" customWidth="1"/>
+    <col min="3" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.6640625" customWidth="1"/>
+    <col min="6" max="7" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>73</v>
       </c>
@@ -3737,18 +3702,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="57.75" customHeight="1">
-      <c r="A2" s="107" t="s">
+    <row r="2" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-    </row>
-    <row r="3" spans="1:7" ht="22.5" customHeight="1">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+    </row>
+    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>75</v>
       </c>
@@ -3759,84 +3724,84 @@
       <c r="F3" s="32"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A4" s="103" t="s">
+    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="103"/>
+      <c r="C4" s="105"/>
       <c r="D4" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="103" t="s">
+      <c r="E4" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-    </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A5" s="103"/>
-      <c r="B5" s="103" t="s">
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+    </row>
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="105"/>
+      <c r="B5" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="103"/>
+      <c r="C5" s="105"/>
       <c r="D5" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-    </row>
-    <row r="6" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A6" s="103"/>
-      <c r="B6" s="103" t="s">
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+    </row>
+    <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="105"/>
+      <c r="B6" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="103"/>
+      <c r="C6" s="105"/>
       <c r="D6" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-    </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A7" s="103" t="s">
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="103"/>
-      <c r="E7" s="105" t="s">
+      <c r="D7" s="105"/>
+      <c r="E7" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="107" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="103"/>
-      <c r="B8" s="103"/>
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="37" t="s">
         <v>87</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-    </row>
-    <row r="9" spans="1:7" ht="22.5" customHeight="1">
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+    </row>
+    <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -3847,7 +3812,7 @@
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
     </row>
-    <row r="10" spans="1:7" ht="22.5" customHeight="1">
+    <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -3856,7 +3821,7 @@
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" ht="22.5" customHeight="1">
+    <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -3865,7 +3830,7 @@
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
     </row>
-    <row r="12" spans="1:7" ht="22.5" customHeight="1">
+    <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -3874,7 +3839,7 @@
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" spans="1:7" ht="22.5" customHeight="1">
+    <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -3883,7 +3848,7 @@
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
     </row>
-    <row r="14" spans="1:7" ht="22.5" customHeight="1">
+    <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -3892,7 +3857,7 @@
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="1:7" ht="22.5" customHeight="1">
+    <row r="15" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -3901,7 +3866,7 @@
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="1:7" ht="22.5" customHeight="1">
+    <row r="16" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -3910,7 +3875,7 @@
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="1:7" ht="22.5" customHeight="1">
+    <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -3919,7 +3884,7 @@
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
     </row>
-    <row r="18" spans="1:7" ht="22.5" customHeight="1">
+    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -3928,7 +3893,7 @@
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
     </row>
-    <row r="19" spans="1:7" ht="22.5" customHeight="1">
+    <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -3937,7 +3902,7 @@
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="1:7" ht="22.5" customHeight="1">
+    <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -3946,7 +3911,7 @@
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" spans="1:7" ht="22.5" customHeight="1">
+    <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -3955,7 +3920,7 @@
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
     </row>
-    <row r="22" spans="1:7" ht="22.5" customHeight="1">
+    <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -3964,7 +3929,7 @@
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" spans="1:7" ht="22.5" customHeight="1">
+    <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -3973,7 +3938,7 @@
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="1:7" ht="22.5" customHeight="1">
+    <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -3982,7 +3947,7 @@
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="1:7" ht="22.5" customHeight="1">
+    <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -3991,7 +3956,7 @@
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:7" ht="22.5" customHeight="1">
+    <row r="26" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -4000,7 +3965,7 @@
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:7" ht="22.5" customHeight="1">
+    <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -4009,7 +3974,7 @@
       <c r="F27" s="36"/>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="1:7" ht="22.5" customHeight="1">
+    <row r="28" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -4018,16 +3983,16 @@
       <c r="F28" s="36"/>
       <c r="G28" s="36"/>
     </row>
-    <row r="29" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A29" s="104" t="s">
+    <row r="29" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4054,30 +4019,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M4" sqref="M4:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="5.5" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="9" max="9" width="10.25" customWidth="1"/>
     <col min="10" max="10" width="5.5" customWidth="1"/>
-    <col min="11" max="12" width="7.83203125" customWidth="1"/>
+    <col min="11" max="12" width="7.875" customWidth="1"/>
     <col min="13" max="13" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>73</v>
       </c>
@@ -4095,23 +4060,23 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="40.5" customHeight="1">
-      <c r="A2" s="107" t="s">
+    <row r="2" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-    </row>
-    <row r="3" spans="1:13" ht="22.5" customHeight="1">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+    </row>
+    <row r="3" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>75</v>
       </c>
@@ -4128,43 +4093,43 @@
       <c r="L3" s="32"/>
       <c r="M3" s="33"/>
     </row>
-    <row r="4" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A4" s="103" t="s">
+    <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="112" t="s">
+      <c r="E4" s="118"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="113"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="119" t="s">
+      <c r="H4" s="121"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="126" t="s">
         <v>103</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="105" t="s">
+      <c r="L4" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="105" t="s">
+      <c r="M4" s="107" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A5" s="103"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="106"/>
+    <row r="5" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="108"/>
       <c r="D5" s="37" t="s">
         <v>94</v>
       </c>
@@ -4183,61 +4148,61 @@
       <c r="I5" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="120"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-    </row>
-    <row r="6" spans="1:13" ht="24" customHeight="1">
+      <c r="J5" s="127"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+    </row>
+    <row r="6" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="35"/>
-      <c r="B6" s="121"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="38"/>
-      <c r="D6" s="127"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="37"/>
       <c r="F6" s="35"/>
-      <c r="G6" s="127"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="37"/>
       <c r="I6" s="39"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
       <c r="M6" s="39"/>
     </row>
-    <row r="7" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A7" s="115" t="s">
+    <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="116"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="118" t="s">
+      <c r="D7" s="123"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="123"/>
-    </row>
-    <row r="8" spans="1:13" ht="42" customHeight="1">
-      <c r="A8" s="124" t="s">
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="113"/>
+    </row>
+    <row r="8" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="126"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="15">
